--- a/رمضان زاده/پیگیری چک ها/چک و سفته های پرداختی.xlsx
+++ b/رمضان زاده/پیگیری چک ها/چک و سفته های پرداختی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="578" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="578" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1400" sheetId="26" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="850">
   <si>
     <t>ردیف</t>
   </si>
@@ -2535,6 +2535,42 @@
   </si>
   <si>
     <t>پاس شد.</t>
+  </si>
+  <si>
+    <t>جواد عرب تیموری</t>
+  </si>
+  <si>
+    <t>281194</t>
+  </si>
+  <si>
+    <t>1402/05/03</t>
+  </si>
+  <si>
+    <t>657563</t>
+  </si>
+  <si>
+    <t>حامد کریمی</t>
+  </si>
+  <si>
+    <t>1401/11/05</t>
+  </si>
+  <si>
+    <t>212544</t>
+  </si>
+  <si>
+    <t>0063/857082</t>
+  </si>
+  <si>
+    <t>اسم ندارد</t>
+  </si>
+  <si>
+    <t>3028/905030</t>
+  </si>
+  <si>
+    <t>1401/05/23</t>
+  </si>
+  <si>
+    <t>1402/05/07</t>
   </si>
 </sst>
 </file>
@@ -3867,6 +3903,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="18" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4132,72 +4234,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="18" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4562,10 +4598,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="219">
+      <c r="A2" s="241">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="261" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="150"/>
@@ -4580,8 +4616,8 @@
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="223"/>
-      <c r="B3" s="240"/>
+      <c r="A3" s="245"/>
+      <c r="B3" s="262"/>
       <c r="C3" s="47" t="s">
         <v>500</v>
       </c>
@@ -4604,8 +4640,8 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="220"/>
-      <c r="B4" s="241"/>
+      <c r="A4" s="242"/>
+      <c r="B4" s="263"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -4618,10 +4654,10 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="219">
+      <c r="A5" s="241">
         <v>2</v>
       </c>
-      <c r="B5" s="234" t="s">
+      <c r="B5" s="256" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="57"/>
@@ -4636,8 +4672,8 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="223"/>
-      <c r="B6" s="235"/>
+      <c r="A6" s="245"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="57" t="s">
         <v>498</v>
       </c>
@@ -4660,8 +4696,8 @@
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="223"/>
-      <c r="B7" s="235"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="57" t="s">
         <v>317</v>
       </c>
@@ -4684,8 +4720,8 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="223"/>
-      <c r="B8" s="235"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="257"/>
       <c r="C8" s="57" t="s">
         <v>317</v>
       </c>
@@ -4708,8 +4744,8 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="223"/>
-      <c r="B9" s="235"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="257"/>
       <c r="C9" s="57" t="s">
         <v>317</v>
       </c>
@@ -4732,8 +4768,8 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="223"/>
-      <c r="B10" s="235"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="257"/>
       <c r="C10" s="57" t="s">
         <v>317</v>
       </c>
@@ -4756,8 +4792,8 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="223"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="257"/>
       <c r="C11" s="57" t="s">
         <v>317</v>
       </c>
@@ -4780,8 +4816,8 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="220"/>
-      <c r="B12" s="236"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="258"/>
       <c r="C12" s="57" t="s">
         <v>317</v>
       </c>
@@ -4804,10 +4840,10 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="219">
+      <c r="A13" s="241">
         <v>3</v>
       </c>
-      <c r="B13" s="237" t="s">
+      <c r="B13" s="259" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="62"/>
@@ -4822,8 +4858,8 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="220"/>
-      <c r="B14" s="238"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="260"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -4836,10 +4872,10 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="219">
+      <c r="A15" s="241">
         <v>4</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="250" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="72" t="s">
@@ -4864,8 +4900,8 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="220"/>
-      <c r="B16" s="229"/>
+      <c r="A16" s="242"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="77"/>
       <c r="D16" s="72"/>
       <c r="E16" s="78"/>
@@ -4878,10 +4914,10 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="219">
+      <c r="A17" s="241">
         <v>5</v>
       </c>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="252" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -4914,8 +4950,8 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="220"/>
-      <c r="B18" s="231"/>
+      <c r="A18" s="242"/>
+      <c r="B18" s="253"/>
       <c r="C18" s="87"/>
       <c r="D18" s="52"/>
       <c r="E18" s="88"/>
@@ -4928,10 +4964,10 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="219">
+      <c r="A19" s="241">
         <v>6</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="254" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="79"/>
@@ -4954,8 +4990,8 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="220"/>
-      <c r="B20" s="233"/>
+      <c r="A20" s="242"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="79"/>
       <c r="D20" s="79"/>
       <c r="E20" s="79"/>
@@ -4968,10 +5004,10 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="219">
+      <c r="A21" s="241">
         <v>7</v>
       </c>
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="243" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="89" t="s">
@@ -4994,8 +5030,8 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="220"/>
-      <c r="B22" s="222"/>
+      <c r="A22" s="242"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -5008,10 +5044,10 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="219">
+      <c r="A23" s="241">
         <v>8</v>
       </c>
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="247" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -5036,8 +5072,8 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="223"/>
-      <c r="B24" s="226"/>
+      <c r="A24" s="245"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="67" t="s">
         <v>261</v>
       </c>
@@ -5060,8 +5096,8 @@
       <c r="L24" s="131"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="223"/>
-      <c r="B25" s="226"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="67" t="s">
         <v>52</v>
       </c>
@@ -5084,8 +5120,8 @@
       <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
-      <c r="B26" s="227"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="249"/>
       <c r="C26" s="67" t="s">
         <v>267</v>
       </c>
@@ -6966,11 +7002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7027,8 +7063,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="250"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="272"/>
+      <c r="B2" s="269" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="30"/>
@@ -7052,8 +7088,8 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="251"/>
-      <c r="B3" s="253"/>
+      <c r="A3" s="273"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="126"/>
       <c r="D3" s="126"/>
       <c r="E3" s="126"/>
@@ -7075,8 +7111,8 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="251"/>
-      <c r="B4" s="253"/>
+      <c r="A4" s="273"/>
+      <c r="B4" s="275"/>
       <c r="C4" s="139"/>
       <c r="D4" s="139"/>
       <c r="E4" s="139"/>
@@ -7098,8 +7134,8 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="251"/>
-      <c r="B5" s="253"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="275"/>
       <c r="C5" s="150"/>
       <c r="D5" s="150"/>
       <c r="E5" s="150"/>
@@ -7121,8 +7157,8 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="251"/>
-      <c r="B6" s="253"/>
+      <c r="A6" s="273"/>
+      <c r="B6" s="275"/>
       <c r="C6" s="150"/>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
@@ -7144,8 +7180,8 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="252"/>
-      <c r="B7" s="248"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="150"/>
       <c r="D7" s="150"/>
       <c r="E7" s="150"/>
@@ -7190,8 +7226,8 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="249"/>
-      <c r="B9" s="247" t="s">
+      <c r="A9" s="271"/>
+      <c r="B9" s="269" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -7206,10 +7242,10 @@
       <c r="F9" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="308" t="s">
+      <c r="G9" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="325"/>
+      <c r="H9" s="236"/>
       <c r="I9" s="20"/>
       <c r="J9" s="9"/>
       <c r="K9" s="106"/>
@@ -7217,8 +7253,8 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="249"/>
-      <c r="B10" s="248"/>
+      <c r="A10" s="271"/>
+      <c r="B10" s="270"/>
       <c r="C10" s="138"/>
       <c r="D10" s="138"/>
       <c r="E10" s="138"/>
@@ -7232,8 +7268,8 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="249"/>
-      <c r="B11" s="257" t="s">
+      <c r="A11" s="271"/>
+      <c r="B11" s="279" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7248,10 +7284,10 @@
       <c r="F11" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="308" t="s">
+      <c r="G11" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="325"/>
+      <c r="H11" s="236"/>
       <c r="I11" s="20" t="s">
         <v>699</v>
       </c>
@@ -7267,14 +7303,14 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="249"/>
-      <c r="B12" s="257"/>
+      <c r="A12" s="271"/>
+      <c r="B12" s="279"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="325"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="236"/>
       <c r="I12" s="20" t="s">
         <v>699</v>
       </c>
@@ -7290,8 +7326,8 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="249"/>
-      <c r="B13" s="257"/>
+      <c r="A13" s="271"/>
+      <c r="B13" s="279"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
@@ -7313,8 +7349,8 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="250"/>
-      <c r="B14" s="258" t="s">
+      <c r="A14" s="272"/>
+      <c r="B14" s="280" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -7329,7 +7365,7 @@
       <c r="F14" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="310" t="s">
+      <c r="G14" s="221" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="181"/>
@@ -7340,8 +7376,8 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="251"/>
-      <c r="B15" s="259"/>
+      <c r="A15" s="273"/>
+      <c r="B15" s="281"/>
       <c r="C15" s="162" t="s">
         <v>626</v>
       </c>
@@ -7354,10 +7390,10 @@
       <c r="F15" s="163" t="s">
         <v>625</v>
       </c>
-      <c r="G15" s="311" t="s">
+      <c r="G15" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="326"/>
+      <c r="H15" s="237"/>
       <c r="I15" s="38"/>
       <c r="J15" s="36"/>
       <c r="K15" s="102"/>
@@ -7365,8 +7401,8 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="251"/>
-      <c r="B16" s="259"/>
+      <c r="A16" s="273"/>
+      <c r="B16" s="281"/>
       <c r="C16" s="35" t="s">
         <v>399</v>
       </c>
@@ -7379,7 +7415,7 @@
       <c r="F16" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="G16" s="310" t="s">
+      <c r="G16" s="221" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="181"/>
@@ -7398,8 +7434,8 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="251"/>
-      <c r="B17" s="260"/>
+      <c r="A17" s="273"/>
+      <c r="B17" s="282"/>
       <c r="C17" s="35" t="s">
         <v>263</v>
       </c>
@@ -7412,7 +7448,7 @@
       <c r="F17" s="173" t="s">
         <v>265</v>
       </c>
-      <c r="G17" s="310" t="s">
+      <c r="G17" s="221" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="181"/>
@@ -7423,8 +7459,8 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="251"/>
-      <c r="B18" s="254" t="s">
+      <c r="A18" s="273"/>
+      <c r="B18" s="276" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="42" t="s">
@@ -7439,7 +7475,7 @@
       <c r="F18" s="145" t="s">
         <v>661</v>
       </c>
-      <c r="G18" s="312" t="s">
+      <c r="G18" s="223" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="182"/>
@@ -7460,8 +7496,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="251"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="42" t="s">
         <v>374</v>
       </c>
@@ -7474,7 +7510,7 @@
       <c r="F19" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="312" t="s">
+      <c r="G19" s="223" t="s">
         <v>114</v>
       </c>
       <c r="H19" s="182"/>
@@ -7493,8 +7529,8 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="251"/>
-      <c r="B20" s="255"/>
+      <c r="A20" s="273"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="42" t="s">
         <v>112</v>
       </c>
@@ -7507,7 +7543,7 @@
       <c r="F20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="312" t="s">
+      <c r="G20" s="223" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="182"/>
@@ -7526,8 +7562,8 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="251"/>
-      <c r="B21" s="255"/>
+      <c r="A21" s="273"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="42" t="s">
         <v>222</v>
       </c>
@@ -7540,7 +7576,7 @@
       <c r="F21" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="G21" s="312" t="s">
+      <c r="G21" s="223" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="182"/>
@@ -7559,8 +7595,8 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="251"/>
-      <c r="B22" s="255"/>
+      <c r="A22" s="273"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="42" t="s">
         <v>598</v>
       </c>
@@ -7573,7 +7609,7 @@
       <c r="F22" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="G22" s="312" t="s">
+      <c r="G22" s="223" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="182"/>
@@ -7592,13 +7628,13 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="251"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="273"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="42"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="312"/>
+      <c r="G23" s="223"/>
       <c r="H23" s="182"/>
       <c r="I23" s="45" t="s">
         <v>336</v>
@@ -7615,13 +7651,13 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="251"/>
-      <c r="B24" s="255"/>
+      <c r="A24" s="273"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
-      <c r="G24" s="312"/>
+      <c r="G24" s="223"/>
       <c r="H24" s="182"/>
       <c r="I24" s="45" t="s">
         <v>336</v>
@@ -7638,8 +7674,8 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="251"/>
-      <c r="B25" s="255"/>
+      <c r="A25" s="273"/>
+      <c r="B25" s="277"/>
       <c r="C25" s="42" t="s">
         <v>112</v>
       </c>
@@ -7652,7 +7688,7 @@
       <c r="F25" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="312" t="s">
+      <c r="G25" s="223" t="s">
         <v>114</v>
       </c>
       <c r="H25" s="182"/>
@@ -7671,8 +7707,8 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="251"/>
-      <c r="B26" s="255"/>
+      <c r="A26" s="273"/>
+      <c r="B26" s="277"/>
       <c r="C26" s="42" t="s">
         <v>543</v>
       </c>
@@ -7685,7 +7721,7 @@
       <c r="F26" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="G26" s="312" t="s">
+      <c r="G26" s="223" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="182"/>
@@ -7696,8 +7732,8 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="251"/>
-      <c r="B27" s="255"/>
+      <c r="A27" s="273"/>
+      <c r="B27" s="277"/>
       <c r="C27" s="42" t="s">
         <v>377</v>
       </c>
@@ -7710,7 +7746,7 @@
       <c r="F27" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="G27" s="312" t="s">
+      <c r="G27" s="223" t="s">
         <v>37</v>
       </c>
       <c r="H27" s="182"/>
@@ -7729,8 +7765,8 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="251"/>
-      <c r="B28" s="255"/>
+      <c r="A28" s="273"/>
+      <c r="B28" s="277"/>
       <c r="C28" s="42" t="s">
         <v>140</v>
       </c>
@@ -7743,7 +7779,7 @@
       <c r="F28" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="223" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="182"/>
@@ -7762,8 +7798,8 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="252"/>
-      <c r="B29" s="256"/>
+      <c r="A29" s="274"/>
+      <c r="B29" s="278"/>
       <c r="C29" s="42" t="s">
         <v>325</v>
       </c>
@@ -7776,7 +7812,7 @@
       <c r="F29" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="G29" s="312" t="s">
+      <c r="G29" s="223" t="s">
         <v>56</v>
       </c>
       <c r="H29" s="182"/>
@@ -7787,10 +7823,10 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="219">
+      <c r="A30" s="241">
         <v>1</v>
       </c>
-      <c r="B30" s="239" t="s">
+      <c r="B30" s="261" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -7805,7 +7841,7 @@
       <c r="F30" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="G30" s="313" t="s">
+      <c r="G30" s="224" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="183"/>
@@ -7824,8 +7860,8 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="223"/>
-      <c r="B31" s="240"/>
+      <c r="A31" s="245"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="216" t="s">
         <v>77</v>
       </c>
@@ -7838,10 +7874,10 @@
       <c r="F31" s="217" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="314" t="s">
+      <c r="G31" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="327" t="s">
+      <c r="H31" s="238" t="s">
         <v>837</v>
       </c>
       <c r="I31" s="50" t="s">
@@ -7859,13 +7895,13 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="223"/>
-      <c r="B32" s="240"/>
+      <c r="A32" s="245"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="313"/>
+      <c r="G32" s="224"/>
       <c r="H32" s="183"/>
       <c r="I32" s="50" t="s">
         <v>77</v>
@@ -7882,8 +7918,8 @@
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="223"/>
-      <c r="B33" s="240"/>
+      <c r="A33" s="245"/>
+      <c r="B33" s="262"/>
       <c r="C33" s="216" t="s">
         <v>328</v>
       </c>
@@ -7896,10 +7932,10 @@
       <c r="F33" s="217" t="s">
         <v>327</v>
       </c>
-      <c r="G33" s="314" t="s">
+      <c r="G33" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="327" t="s">
+      <c r="H33" s="238" t="s">
         <v>837</v>
       </c>
       <c r="I33" s="50"/>
@@ -7909,8 +7945,8 @@
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="223"/>
-      <c r="B34" s="240"/>
+      <c r="A34" s="245"/>
+      <c r="B34" s="262"/>
       <c r="C34" s="216" t="s">
         <v>109</v>
       </c>
@@ -7923,10 +7959,10 @@
       <c r="F34" s="217" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="314" t="s">
+      <c r="G34" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="327" t="s">
+      <c r="H34" s="238" t="s">
         <v>837</v>
       </c>
       <c r="I34" s="50" t="s">
@@ -7944,8 +7980,8 @@
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="223"/>
-      <c r="B35" s="240"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="262"/>
       <c r="C35" s="216" t="s">
         <v>330</v>
       </c>
@@ -7958,10 +7994,10 @@
       <c r="F35" s="217" t="s">
         <v>332</v>
       </c>
-      <c r="G35" s="314" t="s">
+      <c r="G35" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="327" t="s">
+      <c r="H35" s="238" t="s">
         <v>837</v>
       </c>
       <c r="I35" s="50"/>
@@ -7971,24 +8007,26 @@
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="220"/>
-      <c r="B36" s="241"/>
-      <c r="C36" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" s="48">
-        <v>60000000</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="G36" s="313" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="183"/>
+      <c r="A36" s="245"/>
+      <c r="B36" s="262"/>
+      <c r="C36" s="216" t="s">
+        <v>848</v>
+      </c>
+      <c r="D36" s="217">
+        <v>200000000</v>
+      </c>
+      <c r="E36" s="216" t="s">
+        <v>847</v>
+      </c>
+      <c r="F36" s="217" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" s="225" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="238" t="s">
+        <v>837</v>
+      </c>
       <c r="I36" s="50"/>
       <c r="J36" s="51"/>
       <c r="K36" s="51"/>
@@ -7996,45 +8034,39 @@
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="219">
+      <c r="A37" s="242"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="216" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="217">
+        <v>60000000</v>
+      </c>
+      <c r="E37" s="216" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="217" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="238" t="s">
+        <v>837</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="241">
         <v>2</v>
       </c>
-      <c r="B37" s="234" t="s">
+      <c r="B38" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="D37" s="58">
-        <v>200000000</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>489</v>
-      </c>
-      <c r="G37" s="315" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="184"/>
-      <c r="I37" s="322" t="s">
-        <v>426</v>
-      </c>
-      <c r="J37" s="58">
-        <v>16000000</v>
-      </c>
-      <c r="K37" s="57">
-        <v>924091</v>
-      </c>
-      <c r="L37" s="58" t="s">
-        <v>427</v>
-      </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="223"/>
-      <c r="B38" s="235"/>
       <c r="C38" s="57" t="s">
         <v>426</v>
       </c>
@@ -8042,81 +8074,81 @@
         <v>200000000</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>679</v>
+        <v>488</v>
       </c>
       <c r="F38" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="G38" s="315" t="s">
+      <c r="G38" s="226" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="184"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
+      <c r="I38" s="233" t="s">
+        <v>426</v>
+      </c>
+      <c r="J38" s="58">
+        <v>16000000</v>
+      </c>
+      <c r="K38" s="57">
+        <v>924091</v>
+      </c>
+      <c r="L38" s="58" t="s">
+        <v>427</v>
+      </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="223"/>
-      <c r="B39" s="235"/>
+      <c r="A39" s="245"/>
+      <c r="B39" s="257"/>
       <c r="C39" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="D39" s="58">
+        <v>200000000</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G39" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="184"/>
+      <c r="I39" s="233"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="245"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D40" s="58">
         <v>175000000</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E40" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F40" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="315" t="s">
+      <c r="G40" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="184"/>
-      <c r="I39" s="322" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="57">
-        <v>677761</v>
-      </c>
-      <c r="L39" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="223"/>
-      <c r="B40" s="235"/>
-      <c r="C40" s="162" t="s">
-        <v>623</v>
-      </c>
-      <c r="D40" s="163">
-        <v>110000000</v>
-      </c>
-      <c r="E40" s="162" t="s">
-        <v>331</v>
-      </c>
-      <c r="F40" s="163" t="s">
-        <v>625</v>
-      </c>
-      <c r="G40" s="311" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="326"/>
-      <c r="I40" s="322" t="s">
+      <c r="H40" s="184"/>
+      <c r="I40" s="233" t="s">
         <v>143</v>
       </c>
       <c r="J40" s="58" t="s">
         <v>144</v>
       </c>
       <c r="K40" s="57">
-        <v>456908</v>
+        <v>677761</v>
       </c>
       <c r="L40" s="58" t="s">
         <v>145</v>
@@ -8124,32 +8156,32 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="223"/>
-      <c r="B41" s="235"/>
-      <c r="C41" s="57" t="s">
-        <v>834</v>
-      </c>
-      <c r="D41" s="58">
-        <v>200000000</v>
-      </c>
-      <c r="E41" s="57">
-        <v>595458</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>835</v>
-      </c>
-      <c r="G41" s="315" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="184"/>
-      <c r="I41" s="322" t="s">
+      <c r="A41" s="245"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="162" t="s">
+        <v>623</v>
+      </c>
+      <c r="D41" s="163">
+        <v>110000000</v>
+      </c>
+      <c r="E41" s="162" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="163" t="s">
+        <v>625</v>
+      </c>
+      <c r="G41" s="222" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="237"/>
+      <c r="I41" s="233" t="s">
         <v>143</v>
       </c>
       <c r="J41" s="58" t="s">
         <v>144</v>
       </c>
       <c r="K41" s="57">
-        <v>677762</v>
+        <v>456908</v>
       </c>
       <c r="L41" s="58" t="s">
         <v>145</v>
@@ -8157,517 +8189,507 @@
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="223"/>
-      <c r="B42" s="235"/>
+      <c r="A42" s="245"/>
+      <c r="B42" s="257"/>
       <c r="C42" s="57" t="s">
+        <v>834</v>
+      </c>
+      <c r="D42" s="58">
+        <v>200000000</v>
+      </c>
+      <c r="E42" s="57">
+        <v>595458</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>835</v>
+      </c>
+      <c r="G42" s="226" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="184"/>
+      <c r="I42" s="233" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" s="57">
+        <v>677762</v>
+      </c>
+      <c r="L42" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="245"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D43" s="58">
         <v>235000000</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F43" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="315" t="s">
+      <c r="G43" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="184"/>
-      <c r="I42" s="322" t="s">
+      <c r="H43" s="184"/>
+      <c r="I43" s="233" t="s">
         <v>680</v>
       </c>
-      <c r="J42" s="58">
+      <c r="J43" s="58">
         <v>50000000</v>
       </c>
-      <c r="K42" s="57">
+      <c r="K43" s="57">
         <v>438085</v>
       </c>
-      <c r="L42" s="58" t="s">
+      <c r="L43" s="58" t="s">
         <v>681</v>
       </c>
-      <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="223"/>
-      <c r="B43" s="235"/>
-      <c r="C43" s="57" t="s">
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="245"/>
+      <c r="B44" s="257"/>
+      <c r="C44" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="58">
+        <v>200000000</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>846</v>
+      </c>
+      <c r="G44" s="226" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="184"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="245"/>
+      <c r="B45" s="257"/>
+      <c r="C45" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D45" s="58">
         <v>95000000</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E45" s="57" t="s">
         <v>710</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F45" s="58" t="s">
         <v>711</v>
       </c>
-      <c r="G43" s="315" t="s">
+      <c r="G45" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="184"/>
-      <c r="I43" s="322" t="s">
+      <c r="H45" s="184"/>
+      <c r="I45" s="233" t="s">
         <v>577</v>
-      </c>
-      <c r="J43" s="58">
-        <v>100000000</v>
-      </c>
-      <c r="K43" s="57">
-        <v>110379</v>
-      </c>
-      <c r="L43" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="223"/>
-      <c r="B44" s="235"/>
-      <c r="C44" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="D44" s="58">
-        <v>850000000</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="G44" s="315" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="184"/>
-      <c r="I44" s="322" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="58">
-        <v>100000000</v>
-      </c>
-      <c r="K44" s="57">
-        <v>789411</v>
-      </c>
-      <c r="L44" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="223"/>
-      <c r="B45" s="235"/>
-      <c r="C45" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="D45" s="58">
-        <v>140000000</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="G45" s="315" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="184"/>
-      <c r="I45" s="322" t="s">
-        <v>705</v>
       </c>
       <c r="J45" s="58">
         <v>100000000</v>
       </c>
       <c r="K45" s="57">
+        <v>110379</v>
+      </c>
+      <c r="L45" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="245"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="58">
+        <v>850000000</v>
+      </c>
+      <c r="E46" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" s="226" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="184"/>
+      <c r="I46" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="58">
+        <v>100000000</v>
+      </c>
+      <c r="K46" s="57">
+        <v>789411</v>
+      </c>
+      <c r="L46" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="245"/>
+      <c r="B47" s="257"/>
+      <c r="C47" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="D47" s="58">
+        <v>140000000</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="G47" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="184"/>
+      <c r="I47" s="233" t="s">
+        <v>705</v>
+      </c>
+      <c r="J47" s="58">
+        <v>100000000</v>
+      </c>
+      <c r="K47" s="57">
         <v>720348</v>
       </c>
-      <c r="L45" s="135" t="s">
+      <c r="L47" s="135" t="s">
         <v>706</v>
       </c>
-      <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="223"/>
-      <c r="B46" s="235"/>
-      <c r="C46" s="57" t="s">
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="245"/>
+      <c r="B48" s="257"/>
+      <c r="C48" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D48" s="58">
         <v>150000000</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E48" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F48" s="58" t="s">
         <v>592</v>
       </c>
-      <c r="G46" s="315" t="s">
+      <c r="G48" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="184"/>
-      <c r="I46" s="322" t="s">
+      <c r="H48" s="184"/>
+      <c r="I48" s="233" t="s">
         <v>705</v>
       </c>
-      <c r="J46" s="58">
+      <c r="J48" s="58">
         <v>35000000</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K48" s="57">
         <v>801027</v>
       </c>
-      <c r="L46" s="135" t="s">
+      <c r="L48" s="135" t="s">
         <v>706</v>
       </c>
-      <c r="M46" s="168" t="s">
+      <c r="M48" s="168" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="220"/>
-      <c r="B47" s="236"/>
-      <c r="C47" s="57" t="s">
+    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="242"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D49" s="58">
         <v>885000000</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E49" s="57" t="s">
         <v>642</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F49" s="58" t="s">
         <v>643</v>
       </c>
-      <c r="G47" s="315" t="s">
+      <c r="G49" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="184"/>
-      <c r="I47" s="322" t="s">
+      <c r="H49" s="184"/>
+      <c r="I49" s="233" t="s">
         <v>284</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J49" s="58">
         <v>80000000</v>
       </c>
-      <c r="K47" s="57">
+      <c r="K49" s="57">
         <v>834367</v>
       </c>
-      <c r="L47" s="135" t="s">
+      <c r="L49" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="219">
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="241">
         <v>3</v>
       </c>
-      <c r="B48" s="237" t="s">
+      <c r="B50" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="D48" s="63">
-        <v>200000000</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="F48" s="144" t="s">
-        <v>358</v>
-      </c>
-      <c r="G48" s="316" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="185"/>
-      <c r="I48" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="J48" s="63">
-        <v>50000000</v>
-      </c>
-      <c r="K48" s="136" t="s">
-        <v>548</v>
-      </c>
-      <c r="L48" s="156" t="s">
-        <v>551</v>
-      </c>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="223"/>
-      <c r="B49" s="245"/>
-      <c r="C49" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="D49" s="63">
-        <v>835000000</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>422</v>
-      </c>
-      <c r="F49" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="G49" s="316" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="185"/>
-      <c r="I49" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="J49" s="63">
-        <v>20000000</v>
-      </c>
-      <c r="K49" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="L49" s="155" t="s">
-        <v>525</v>
-      </c>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="223"/>
-      <c r="B50" s="245"/>
       <c r="C50" s="62" t="s">
         <v>359</v>
       </c>
       <c r="D50" s="63">
-        <v>165000000</v>
+        <v>200000000</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="F50" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="G50" s="316" t="s">
-        <v>76</v>
+        <v>358</v>
+      </c>
+      <c r="G50" s="227" t="s">
+        <v>37</v>
       </c>
       <c r="H50" s="185"/>
       <c r="I50" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="J50" s="63">
+        <v>50000000</v>
+      </c>
+      <c r="K50" s="136" t="s">
+        <v>548</v>
+      </c>
+      <c r="L50" s="156" t="s">
+        <v>551</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="245"/>
+      <c r="B51" s="267"/>
+      <c r="C51" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51" s="63">
+        <v>835000000</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F51" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" s="227" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="185"/>
+      <c r="I51" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="J50" s="63">
-        <v>85000000</v>
-      </c>
-      <c r="K50" s="136" t="s">
-        <v>526</v>
-      </c>
-      <c r="L50" s="66" t="s">
-        <v>523</v>
-      </c>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="223"/>
-      <c r="B51" s="245"/>
-      <c r="C51" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="D51" s="63">
-        <v>154000000</v>
-      </c>
-      <c r="E51" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="F51" s="144" t="s">
-        <v>592</v>
-      </c>
-      <c r="G51" s="316" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="185"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="66"/>
+      <c r="J51" s="63">
+        <v>20000000</v>
+      </c>
+      <c r="K51" s="136" t="s">
+        <v>524</v>
+      </c>
+      <c r="L51" s="155" t="s">
+        <v>525</v>
+      </c>
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="223"/>
-      <c r="B52" s="245"/>
+      <c r="A52" s="245"/>
+      <c r="B52" s="267"/>
       <c r="C52" s="62" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="D52" s="63">
-        <v>180000000</v>
+        <v>165000000</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="F52" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="G52" s="316" t="s">
-        <v>56</v>
+        <v>425</v>
+      </c>
+      <c r="F52" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" s="227" t="s">
+        <v>76</v>
       </c>
       <c r="H52" s="185"/>
       <c r="I52" s="65" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="J52" s="63">
-        <v>27000000</v>
+        <v>85000000</v>
       </c>
       <c r="K52" s="136" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L52" s="66" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="223"/>
-      <c r="B53" s="245"/>
+      <c r="A53" s="245"/>
+      <c r="B53" s="267"/>
       <c r="C53" s="62" t="s">
-        <v>682</v>
+        <v>590</v>
       </c>
       <c r="D53" s="63">
-        <v>25000000</v>
+        <v>154000000</v>
       </c>
       <c r="E53" s="62" t="s">
-        <v>683</v>
-      </c>
-      <c r="F53" s="63" t="s">
-        <v>684</v>
-      </c>
-      <c r="G53" s="316" t="s">
+        <v>591</v>
+      </c>
+      <c r="F53" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="G53" s="227" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="185"/>
-      <c r="I53" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="J53" s="63">
-        <v>50000000</v>
-      </c>
-      <c r="K53" s="136" t="s">
-        <v>533</v>
-      </c>
-      <c r="L53" s="137" t="s">
-        <v>532</v>
-      </c>
+      <c r="I53" s="65"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="66"/>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="223"/>
-      <c r="B54" s="245"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="267"/>
       <c r="C54" s="62" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="D54" s="63">
-        <v>2200000000</v>
+        <v>180000000</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="F54" s="63" t="s">
-        <v>449</v>
-      </c>
-      <c r="G54" s="316" t="s">
-        <v>24</v>
+        <v>384</v>
+      </c>
+      <c r="G54" s="227" t="s">
+        <v>56</v>
       </c>
       <c r="H54" s="185"/>
       <c r="I54" s="65" t="s">
-        <v>618</v>
+        <v>447</v>
       </c>
       <c r="J54" s="63">
-        <v>20000000</v>
+        <v>27000000</v>
       </c>
       <c r="K54" s="136" t="s">
-        <v>619</v>
-      </c>
-      <c r="L54" s="137" t="s">
-        <v>620</v>
+        <v>531</v>
+      </c>
+      <c r="L54" s="66" t="s">
+        <v>528</v>
       </c>
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="223"/>
-      <c r="B55" s="245"/>
+      <c r="A55" s="245"/>
+      <c r="B55" s="267"/>
       <c r="C55" s="62" t="s">
-        <v>291</v>
+        <v>682</v>
       </c>
       <c r="D55" s="63">
-        <v>60000000</v>
+        <v>25000000</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>292</v>
+        <v>683</v>
       </c>
       <c r="F55" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="G55" s="316" t="s">
-        <v>230</v>
+        <v>684</v>
+      </c>
+      <c r="G55" s="227" t="s">
+        <v>37</v>
       </c>
       <c r="H55" s="185"/>
       <c r="I55" s="65" t="s">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="J55" s="63">
         <v>50000000</v>
       </c>
-      <c r="K55" s="136">
-        <v>444217</v>
+      <c r="K55" s="136" t="s">
+        <v>533</v>
       </c>
       <c r="L55" s="137" t="s">
-        <v>287</v>
+        <v>532</v>
       </c>
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="223"/>
-      <c r="B56" s="245"/>
+      <c r="A56" s="245"/>
+      <c r="B56" s="267"/>
       <c r="C56" s="62" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="D56" s="63">
-        <v>200000000</v>
+        <v>2200000000</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>566</v>
+        <v>448</v>
       </c>
       <c r="F56" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="G56" s="316" t="s">
+        <v>449</v>
+      </c>
+      <c r="G56" s="227" t="s">
         <v>24</v>
       </c>
       <c r="H56" s="185"/>
       <c r="I56" s="65" t="s">
-        <v>286</v>
+        <v>618</v>
       </c>
       <c r="J56" s="63">
-        <v>150000000</v>
+        <v>20000000</v>
       </c>
       <c r="K56" s="136" t="s">
-        <v>736</v>
-      </c>
-      <c r="L56" s="172" t="s">
-        <v>734</v>
-      </c>
-      <c r="M56" s="168" t="s">
-        <v>737</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="L56" s="137" t="s">
+        <v>620</v>
+      </c>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="220"/>
-      <c r="B57" s="238"/>
+      <c r="A57" s="245"/>
+      <c r="B57" s="267"/>
       <c r="C57" s="62" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="D57" s="63">
-        <v>160000000</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>406</v>
+        <v>60000000</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>292</v>
       </c>
       <c r="F57" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="G57" s="316" t="s">
-        <v>37</v>
+        <v>293</v>
+      </c>
+      <c r="G57" s="227" t="s">
+        <v>230</v>
       </c>
       <c r="H57" s="185"/>
       <c r="I57" s="65" t="s">
@@ -8677,80 +8699,102 @@
         <v>50000000</v>
       </c>
       <c r="K57" s="136">
-        <v>444216</v>
+        <v>444217</v>
       </c>
       <c r="L57" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="M57" s="13"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="219">
+      <c r="A58" s="245"/>
+      <c r="B58" s="267"/>
+      <c r="C58" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="63">
+        <v>200000000</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="F58" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="G58" s="227" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="185"/>
+      <c r="I58" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J58" s="63">
+        <v>150000000</v>
+      </c>
+      <c r="K58" s="136" t="s">
+        <v>736</v>
+      </c>
+      <c r="L58" s="172" t="s">
+        <v>734</v>
+      </c>
+      <c r="M58" s="168" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="242"/>
+      <c r="B59" s="260"/>
+      <c r="C59" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="D59" s="63">
+        <v>160000000</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" s="227" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="185"/>
+      <c r="I59" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J59" s="63">
+        <v>50000000</v>
+      </c>
+      <c r="K59" s="136">
+        <v>444216</v>
+      </c>
+      <c r="L59" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="241">
         <v>4</v>
       </c>
-      <c r="B58" s="228" t="s">
+      <c r="B60" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="317"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="J58" s="73">
-        <v>100000000</v>
-      </c>
-      <c r="K58" s="124" t="s">
-        <v>777</v>
-      </c>
-      <c r="L58" s="174" t="s">
-        <v>780</v>
-      </c>
-      <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="223"/>
-      <c r="B59" s="246"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="317"/>
-      <c r="H59" s="186"/>
-      <c r="I59" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="J59" s="73">
-        <v>100000000</v>
-      </c>
-      <c r="K59" s="124" t="s">
-        <v>778</v>
-      </c>
-      <c r="L59" s="174" t="s">
-        <v>780</v>
-      </c>
-      <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="223"/>
-      <c r="B60" s="246"/>
       <c r="C60" s="75"/>
       <c r="D60" s="73"/>
       <c r="E60" s="124"/>
       <c r="F60" s="76"/>
-      <c r="G60" s="317"/>
+      <c r="G60" s="228"/>
       <c r="H60" s="186"/>
       <c r="I60" s="75" t="s">
         <v>776</v>
       </c>
       <c r="J60" s="73">
-        <v>30000000</v>
+        <v>100000000</v>
       </c>
       <c r="K60" s="124" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L60" s="174" t="s">
         <v>780</v>
@@ -8758,105 +8802,105 @@
       <c r="M60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="223"/>
-      <c r="B61" s="246"/>
+      <c r="A61" s="245"/>
+      <c r="B61" s="268"/>
       <c r="C61" s="75"/>
       <c r="D61" s="73"/>
       <c r="E61" s="124"/>
       <c r="F61" s="76"/>
-      <c r="G61" s="317"/>
+      <c r="G61" s="228"/>
       <c r="H61" s="186"/>
       <c r="I61" s="75" t="s">
-        <v>534</v>
+        <v>776</v>
       </c>
       <c r="J61" s="73">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="K61" s="124" t="s">
-        <v>535</v>
-      </c>
-      <c r="L61" s="76" t="s">
-        <v>536</v>
+        <v>778</v>
+      </c>
+      <c r="L61" s="174" t="s">
+        <v>780</v>
       </c>
       <c r="M61" s="13"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="223"/>
-      <c r="B62" s="246"/>
+      <c r="A62" s="245"/>
+      <c r="B62" s="268"/>
       <c r="C62" s="75"/>
       <c r="D62" s="73"/>
       <c r="E62" s="124"/>
       <c r="F62" s="76"/>
-      <c r="G62" s="317"/>
+      <c r="G62" s="228"/>
       <c r="H62" s="186"/>
       <c r="I62" s="75" t="s">
-        <v>534</v>
+        <v>776</v>
       </c>
       <c r="J62" s="73">
-        <v>11000000</v>
+        <v>30000000</v>
       </c>
       <c r="K62" s="124" t="s">
-        <v>603</v>
-      </c>
-      <c r="L62" s="154" t="s">
-        <v>604</v>
+        <v>779</v>
+      </c>
+      <c r="L62" s="174" t="s">
+        <v>780</v>
       </c>
       <c r="M62" s="13"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="223"/>
-      <c r="B63" s="246"/>
+      <c r="A63" s="245"/>
+      <c r="B63" s="268"/>
       <c r="C63" s="75"/>
       <c r="D63" s="73"/>
       <c r="E63" s="124"/>
       <c r="F63" s="76"/>
-      <c r="G63" s="317"/>
+      <c r="G63" s="228"/>
       <c r="H63" s="186"/>
       <c r="I63" s="75" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="J63" s="73">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="K63" s="124" t="s">
-        <v>695</v>
-      </c>
-      <c r="L63" s="154" t="s">
-        <v>690</v>
+        <v>535</v>
+      </c>
+      <c r="L63" s="76" t="s">
+        <v>536</v>
       </c>
       <c r="M63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="223"/>
-      <c r="B64" s="246"/>
+      <c r="A64" s="245"/>
+      <c r="B64" s="268"/>
       <c r="C64" s="75"/>
       <c r="D64" s="73"/>
       <c r="E64" s="124"/>
       <c r="F64" s="76"/>
-      <c r="G64" s="317"/>
+      <c r="G64" s="228"/>
       <c r="H64" s="186"/>
       <c r="I64" s="75" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="J64" s="73">
-        <v>100000000</v>
+        <v>11000000</v>
       </c>
       <c r="K64" s="124" t="s">
-        <v>694</v>
+        <v>603</v>
       </c>
       <c r="L64" s="154" t="s">
-        <v>690</v>
+        <v>604</v>
       </c>
       <c r="M64" s="13"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="223"/>
-      <c r="B65" s="246"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="268"/>
       <c r="C65" s="75"/>
       <c r="D65" s="73"/>
       <c r="E65" s="124"/>
       <c r="F65" s="76"/>
-      <c r="G65" s="317"/>
+      <c r="G65" s="228"/>
       <c r="H65" s="186"/>
       <c r="I65" s="75" t="s">
         <v>309</v>
@@ -8865,7 +8909,7 @@
         <v>100000000</v>
       </c>
       <c r="K65" s="124" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L65" s="154" t="s">
         <v>690</v>
@@ -8873,13 +8917,13 @@
       <c r="M65" s="13"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="223"/>
-      <c r="B66" s="246"/>
+      <c r="A66" s="245"/>
+      <c r="B66" s="268"/>
       <c r="C66" s="75"/>
       <c r="D66" s="73"/>
       <c r="E66" s="124"/>
       <c r="F66" s="76"/>
-      <c r="G66" s="317"/>
+      <c r="G66" s="228"/>
       <c r="H66" s="186"/>
       <c r="I66" s="75" t="s">
         <v>309</v>
@@ -8888,7 +8932,7 @@
         <v>100000000</v>
       </c>
       <c r="K66" s="124" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="L66" s="154" t="s">
         <v>690</v>
@@ -8896,13 +8940,13 @@
       <c r="M66" s="13"/>
     </row>
     <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="223"/>
-      <c r="B67" s="246"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="268"/>
       <c r="C67" s="75"/>
       <c r="D67" s="73"/>
       <c r="E67" s="124"/>
       <c r="F67" s="76"/>
-      <c r="G67" s="317"/>
+      <c r="G67" s="228"/>
       <c r="H67" s="186"/>
       <c r="I67" s="75" t="s">
         <v>309</v>
@@ -8911,7 +8955,7 @@
         <v>100000000</v>
       </c>
       <c r="K67" s="124" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="L67" s="154" t="s">
         <v>690</v>
@@ -8919,529 +8963,519 @@
       <c r="M67" s="13"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="223"/>
-      <c r="B68" s="246"/>
+      <c r="A68" s="245"/>
+      <c r="B68" s="268"/>
       <c r="C68" s="75"/>
       <c r="D68" s="73"/>
       <c r="E68" s="124"/>
       <c r="F68" s="76"/>
-      <c r="G68" s="317"/>
+      <c r="G68" s="228"/>
       <c r="H68" s="186"/>
       <c r="I68" s="75" t="s">
         <v>309</v>
       </c>
       <c r="J68" s="73">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="K68" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="L68" s="76" t="s">
-        <v>311</v>
+        <v>692</v>
+      </c>
+      <c r="L68" s="154" t="s">
+        <v>690</v>
       </c>
       <c r="M68" s="13"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="223"/>
-      <c r="B69" s="246"/>
+      <c r="A69" s="245"/>
+      <c r="B69" s="268"/>
       <c r="C69" s="75"/>
       <c r="D69" s="73"/>
       <c r="E69" s="124"/>
       <c r="F69" s="76"/>
-      <c r="G69" s="317"/>
+      <c r="G69" s="228"/>
       <c r="H69" s="186"/>
       <c r="I69" s="75" t="s">
         <v>309</v>
       </c>
       <c r="J69" s="73">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="K69" s="124" t="s">
-        <v>312</v>
-      </c>
-      <c r="L69" s="76" t="s">
-        <v>311</v>
+        <v>689</v>
+      </c>
+      <c r="L69" s="154" t="s">
+        <v>690</v>
       </c>
       <c r="M69" s="13"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="223"/>
-      <c r="B70" s="246"/>
+      <c r="A70" s="245"/>
+      <c r="B70" s="268"/>
       <c r="C70" s="75"/>
       <c r="D70" s="73"/>
       <c r="E70" s="124"/>
       <c r="F70" s="76"/>
-      <c r="G70" s="317"/>
+      <c r="G70" s="228"/>
       <c r="H70" s="186"/>
       <c r="I70" s="75" t="s">
-        <v>773</v>
+        <v>309</v>
       </c>
       <c r="J70" s="73">
-        <v>135000000</v>
+        <v>10000000</v>
       </c>
       <c r="K70" s="124" t="s">
-        <v>774</v>
+        <v>310</v>
       </c>
       <c r="L70" s="76" t="s">
-        <v>775</v>
+        <v>311</v>
       </c>
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="223"/>
-      <c r="B71" s="246"/>
+      <c r="A71" s="245"/>
+      <c r="B71" s="268"/>
       <c r="C71" s="75"/>
       <c r="D71" s="73"/>
       <c r="E71" s="124"/>
       <c r="F71" s="76"/>
-      <c r="G71" s="317"/>
+      <c r="G71" s="228"/>
       <c r="H71" s="186"/>
       <c r="I71" s="75" t="s">
-        <v>610</v>
+        <v>309</v>
       </c>
       <c r="J71" s="73">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="K71" s="124" t="s">
-        <v>611</v>
+        <v>312</v>
       </c>
       <c r="L71" s="76" t="s">
-        <v>607</v>
+        <v>311</v>
       </c>
       <c r="M71" s="13"/>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="223"/>
-      <c r="B72" s="246"/>
-      <c r="C72" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" s="73">
-        <v>100000000</v>
-      </c>
-      <c r="E72" s="124" t="s">
-        <v>227</v>
-      </c>
-      <c r="F72" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="G72" s="317" t="s">
-        <v>37</v>
-      </c>
+      <c r="A72" s="245"/>
+      <c r="B72" s="268"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="228"/>
       <c r="H72" s="186"/>
       <c r="I72" s="75" t="s">
-        <v>169</v>
+        <v>773</v>
       </c>
       <c r="J72" s="73">
-        <v>6000000</v>
-      </c>
-      <c r="K72" s="124">
-        <v>267308</v>
+        <v>135000000</v>
+      </c>
+      <c r="K72" s="124" t="s">
+        <v>774</v>
       </c>
       <c r="L72" s="76" t="s">
-        <v>166</v>
+        <v>775</v>
       </c>
       <c r="M72" s="13"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="223"/>
-      <c r="B73" s="246"/>
-      <c r="C73" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="D73" s="73">
-        <v>100000000</v>
-      </c>
-      <c r="E73" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="F73" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="G73" s="317" t="s">
-        <v>230</v>
-      </c>
+      <c r="A73" s="245"/>
+      <c r="B73" s="268"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="228"/>
       <c r="H73" s="186"/>
       <c r="I73" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="J73" s="73">
+        <v>100000000</v>
+      </c>
+      <c r="K73" s="124" t="s">
+        <v>611</v>
+      </c>
+      <c r="L73" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="245"/>
+      <c r="B74" s="268"/>
+      <c r="C74" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="73">
+        <v>100000000</v>
+      </c>
+      <c r="E74" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="228" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="186"/>
+      <c r="I74" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" s="73">
+        <v>6000000</v>
+      </c>
+      <c r="K74" s="124">
+        <v>267308</v>
+      </c>
+      <c r="L74" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="245"/>
+      <c r="B75" s="268"/>
+      <c r="C75" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="73">
+        <v>100000000</v>
+      </c>
+      <c r="E75" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="228" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="186"/>
+      <c r="I75" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="J73" s="73">
+      <c r="J75" s="73">
         <v>20000000</v>
       </c>
-      <c r="K73" s="76">
+      <c r="K75" s="76">
         <v>800226</v>
       </c>
-      <c r="L73" s="76" t="s">
+      <c r="L75" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="223"/>
-      <c r="B74" s="246"/>
-      <c r="C74" s="75" t="s">
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="245"/>
+      <c r="B76" s="268"/>
+      <c r="C76" s="75" t="s">
         <v>534</v>
       </c>
-      <c r="D74" s="73">
+      <c r="D76" s="73">
         <v>162000000</v>
       </c>
-      <c r="E74" s="124" t="s">
+      <c r="E76" s="124" t="s">
         <v>609</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F76" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="G74" s="317"/>
-      <c r="H74" s="186"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="223"/>
-      <c r="B75" s="246"/>
-      <c r="C75" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="D75" s="73">
-        <v>130000000</v>
-      </c>
-      <c r="E75" s="124" t="s">
-        <v>421</v>
-      </c>
-      <c r="F75" s="149" t="s">
-        <v>419</v>
-      </c>
-      <c r="G75" s="317" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="186"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="223"/>
-      <c r="B76" s="246"/>
-      <c r="C76" s="75" t="s">
-        <v>407</v>
-      </c>
-      <c r="D76" s="73">
-        <v>573000000</v>
-      </c>
-      <c r="E76" s="124" t="s">
-        <v>408</v>
-      </c>
-      <c r="F76" s="76" t="s">
-        <v>404</v>
-      </c>
-      <c r="G76" s="317" t="s">
-        <v>24</v>
-      </c>
+      <c r="G76" s="228"/>
       <c r="H76" s="186"/>
       <c r="I76" s="75"/>
       <c r="J76" s="73"/>
-      <c r="K76" s="124"/>
+      <c r="K76" s="76"/>
       <c r="L76" s="76"/>
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="220"/>
-      <c r="B77" s="229"/>
+      <c r="A77" s="245"/>
+      <c r="B77" s="268"/>
       <c r="C77" s="75" t="s">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="D77" s="73">
-        <v>200000000</v>
+        <v>130000000</v>
       </c>
       <c r="E77" s="124" t="s">
-        <v>602</v>
-      </c>
-      <c r="F77" s="76" t="s">
-        <v>601</v>
-      </c>
-      <c r="G77" s="317" t="s">
-        <v>230</v>
+        <v>421</v>
+      </c>
+      <c r="F77" s="149" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" s="228" t="s">
+        <v>56</v>
       </c>
       <c r="H77" s="186"/>
       <c r="I77" s="75"/>
       <c r="J77" s="73"/>
-      <c r="K77" s="124"/>
+      <c r="K77" s="76"/>
       <c r="L77" s="76"/>
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="219">
+      <c r="A78" s="245"/>
+      <c r="B78" s="268"/>
+      <c r="C78" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="D78" s="73">
+        <v>573000000</v>
+      </c>
+      <c r="E78" s="124" t="s">
+        <v>408</v>
+      </c>
+      <c r="F78" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="G78" s="228" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="186"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="242"/>
+      <c r="B79" s="251"/>
+      <c r="C79" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="D79" s="73">
+        <v>200000000</v>
+      </c>
+      <c r="E79" s="124" t="s">
+        <v>602</v>
+      </c>
+      <c r="F79" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="G79" s="228" t="s">
+        <v>230</v>
+      </c>
+      <c r="H79" s="186"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="14"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="241">
         <v>5</v>
       </c>
-      <c r="B78" s="230" t="s">
+      <c r="B80" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C80" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D80" s="53">
         <v>1000000000</v>
       </c>
-      <c r="E78" s="101" t="s">
+      <c r="E80" s="101" t="s">
         <v>572</v>
       </c>
-      <c r="F78" s="53" t="s">
+      <c r="F80" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="G78" s="318" t="s">
+      <c r="G80" s="229" t="s">
         <v>24</v>
-      </c>
-      <c r="H78" s="187"/>
-      <c r="I78" s="55" t="s">
-        <v>397</v>
-      </c>
-      <c r="J78" s="53">
-        <v>40000000</v>
-      </c>
-      <c r="K78" s="101" t="s">
-        <v>398</v>
-      </c>
-      <c r="L78" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="M78" s="14"/>
-    </row>
-    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="223"/>
-      <c r="B79" s="244"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="318"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="55" t="s">
-        <v>397</v>
-      </c>
-      <c r="J79" s="53">
-        <v>90000000</v>
-      </c>
-      <c r="K79" s="101" t="s">
-        <v>570</v>
-      </c>
-      <c r="L79" s="132" t="s">
-        <v>571</v>
-      </c>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="223"/>
-      <c r="B80" s="244"/>
-      <c r="C80" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="53">
-        <v>200000000</v>
-      </c>
-      <c r="E80" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="F80" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="318" t="s">
-        <v>37</v>
       </c>
       <c r="H80" s="187"/>
       <c r="I80" s="55" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="J80" s="53">
-        <v>50000000</v>
+        <v>40000000</v>
       </c>
       <c r="K80" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" s="53" t="s">
-        <v>51</v>
+        <v>398</v>
+      </c>
+      <c r="L80" s="147" t="s">
+        <v>396</v>
       </c>
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="223"/>
-      <c r="B81" s="244"/>
+      <c r="A81" s="245"/>
+      <c r="B81" s="266"/>
       <c r="C81" s="52"/>
       <c r="D81" s="53"/>
       <c r="E81" s="101"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="318"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="229"/>
       <c r="H81" s="187"/>
       <c r="I81" s="55" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="J81" s="53">
-        <v>100000000</v>
+        <v>90000000</v>
       </c>
       <c r="K81" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="L81" s="53" t="s">
-        <v>254</v>
+        <v>570</v>
+      </c>
+      <c r="L81" s="132" t="s">
+        <v>571</v>
       </c>
       <c r="M81" s="14"/>
     </row>
     <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="223"/>
-      <c r="B82" s="244"/>
+      <c r="A82" s="245"/>
+      <c r="B82" s="266"/>
       <c r="C82" s="52" t="s">
-        <v>771</v>
+        <v>36</v>
       </c>
       <c r="D82" s="53">
-        <v>160000000</v>
+        <v>200000000</v>
       </c>
       <c r="E82" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="F82" s="132" t="s">
-        <v>768</v>
-      </c>
-      <c r="G82" s="318" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="F82" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="229" t="s">
+        <v>37</v>
       </c>
       <c r="H82" s="187"/>
       <c r="I82" s="55" t="s">
-        <v>729</v>
+        <v>57</v>
       </c>
       <c r="J82" s="53">
         <v>50000000</v>
       </c>
       <c r="K82" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="L82" s="132" t="s">
-        <v>731</v>
+        <v>58</v>
+      </c>
+      <c r="L82" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="M82" s="14"/>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="223"/>
-      <c r="B83" s="244"/>
+      <c r="A83" s="245"/>
+      <c r="B83" s="266"/>
       <c r="C83" s="52"/>
       <c r="D83" s="53"/>
       <c r="E83" s="101"/>
       <c r="F83" s="132"/>
-      <c r="G83" s="318"/>
+      <c r="G83" s="229"/>
       <c r="H83" s="187"/>
       <c r="I83" s="55" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="J83" s="53">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="K83" s="101" t="s">
-        <v>354</v>
-      </c>
-      <c r="L83" s="140" t="s">
-        <v>355</v>
+        <v>253</v>
+      </c>
+      <c r="L83" s="53" t="s">
+        <v>254</v>
       </c>
       <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="223"/>
-      <c r="B84" s="244"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="318"/>
+      <c r="A84" s="245"/>
+      <c r="B84" s="266"/>
+      <c r="C84" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="D84" s="53">
+        <v>160000000</v>
+      </c>
+      <c r="E84" s="101" t="s">
+        <v>772</v>
+      </c>
+      <c r="F84" s="132" t="s">
+        <v>768</v>
+      </c>
+      <c r="G84" s="229" t="s">
+        <v>56</v>
+      </c>
       <c r="H84" s="187"/>
       <c r="I84" s="55" t="s">
-        <v>653</v>
-      </c>
-      <c r="J84" s="53" t="s">
-        <v>654</v>
+        <v>729</v>
+      </c>
+      <c r="J84" s="53">
+        <v>50000000</v>
       </c>
       <c r="K84" s="101" t="s">
-        <v>655</v>
-      </c>
-      <c r="L84" s="53" t="s">
-        <v>656</v>
+        <v>730</v>
+      </c>
+      <c r="L84" s="132" t="s">
+        <v>731</v>
       </c>
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="223"/>
-      <c r="B85" s="244"/>
+      <c r="A85" s="245"/>
+      <c r="B85" s="266"/>
       <c r="C85" s="52"/>
       <c r="D85" s="53"/>
       <c r="E85" s="101"/>
       <c r="F85" s="132"/>
-      <c r="G85" s="318"/>
+      <c r="G85" s="229"/>
       <c r="H85" s="187"/>
       <c r="I85" s="55" t="s">
-        <v>653</v>
+        <v>353</v>
       </c>
       <c r="J85" s="53">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="K85" s="101" t="s">
-        <v>657</v>
-      </c>
-      <c r="L85" s="53" t="s">
-        <v>656</v>
+        <v>354</v>
+      </c>
+      <c r="L85" s="140" t="s">
+        <v>355</v>
       </c>
       <c r="M85" s="14"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="223"/>
-      <c r="B86" s="244"/>
-      <c r="C86" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="53">
-        <v>128000000</v>
-      </c>
-      <c r="E86" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="318" t="s">
-        <v>56</v>
-      </c>
+      <c r="A86" s="245"/>
+      <c r="B86" s="266"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="229"/>
       <c r="H86" s="187"/>
       <c r="I86" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="J86" s="53">
-        <v>50000000</v>
+        <v>653</v>
+      </c>
+      <c r="J86" s="53" t="s">
+        <v>654</v>
       </c>
       <c r="K86" s="101" t="s">
-        <v>345</v>
-      </c>
-      <c r="L86" s="141" t="s">
-        <v>346</v>
+        <v>655</v>
+      </c>
+      <c r="L86" s="53" t="s">
+        <v>656</v>
       </c>
       <c r="M86" s="14"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="223"/>
-      <c r="B87" s="244"/>
+      <c r="A87" s="245"/>
+      <c r="B87" s="266"/>
       <c r="C87" s="52"/>
       <c r="D87" s="53"/>
       <c r="E87" s="101"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="318"/>
+      <c r="F87" s="132"/>
+      <c r="G87" s="229"/>
       <c r="H87" s="187"/>
       <c r="I87" s="55" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="J87" s="53">
         <v>100000000</v>
       </c>
       <c r="K87" s="101" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L87" s="53" t="s">
         <v>656</v>
@@ -9449,194 +9483,194 @@
       <c r="M87" s="14"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="223"/>
-      <c r="B88" s="244"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="318"/>
+      <c r="A88" s="245"/>
+      <c r="B88" s="266"/>
+      <c r="C88" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="53">
+        <v>128000000</v>
+      </c>
+      <c r="E88" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="229" t="s">
+        <v>56</v>
+      </c>
       <c r="H88" s="187"/>
       <c r="I88" s="55" t="s">
-        <v>658</v>
+        <v>344</v>
       </c>
       <c r="J88" s="53">
-        <v>73000000</v>
+        <v>50000000</v>
       </c>
       <c r="K88" s="101" t="s">
-        <v>660</v>
-      </c>
-      <c r="L88" s="53" t="s">
-        <v>656</v>
+        <v>345</v>
+      </c>
+      <c r="L88" s="141" t="s">
+        <v>346</v>
       </c>
       <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="220"/>
-      <c r="B89" s="231"/>
-      <c r="C89" s="52" t="s">
-        <v>613</v>
-      </c>
-      <c r="D89" s="53">
-        <v>440000000</v>
-      </c>
-      <c r="E89" s="101" t="s">
-        <v>614</v>
-      </c>
-      <c r="F89" s="53" t="s">
-        <v>615</v>
-      </c>
-      <c r="G89" s="318" t="s">
-        <v>24</v>
-      </c>
+      <c r="A89" s="245"/>
+      <c r="B89" s="266"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="229"/>
       <c r="H89" s="187"/>
       <c r="I89" s="55" t="s">
-        <v>54</v>
+        <v>658</v>
       </c>
       <c r="J89" s="53">
-        <v>43000000</v>
+        <v>100000000</v>
       </c>
       <c r="K89" s="101" t="s">
-        <v>59</v>
+        <v>659</v>
       </c>
       <c r="L89" s="53" t="s">
-        <v>51</v>
+        <v>656</v>
       </c>
       <c r="M89" s="14"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166"/>
-      <c r="B90" s="167"/>
+      <c r="A90" s="245"/>
+      <c r="B90" s="266"/>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
       <c r="E90" s="101"/>
       <c r="F90" s="53"/>
-      <c r="G90" s="318"/>
+      <c r="G90" s="229"/>
       <c r="H90" s="187"/>
       <c r="I90" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="J90" s="53">
+        <v>73000000</v>
+      </c>
+      <c r="K90" s="101" t="s">
+        <v>660</v>
+      </c>
+      <c r="L90" s="53" t="s">
+        <v>656</v>
+      </c>
+      <c r="M90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="242"/>
+      <c r="B91" s="253"/>
+      <c r="C91" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="D91" s="53">
+        <v>440000000</v>
+      </c>
+      <c r="E91" s="101" t="s">
+        <v>614</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="G91" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="187"/>
+      <c r="I91" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="53">
+        <v>43000000</v>
+      </c>
+      <c r="K91" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="L91" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" s="14"/>
+    </row>
+    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="166"/>
+      <c r="B92" s="167"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="229"/>
+      <c r="H92" s="187"/>
+      <c r="I92" s="55" t="s">
         <v>738</v>
       </c>
-      <c r="J90" s="53">
+      <c r="J92" s="53">
         <v>10000000</v>
       </c>
-      <c r="K90" s="101" t="s">
+      <c r="K92" s="101" t="s">
         <v>739</v>
       </c>
-      <c r="L90" s="53" t="s">
+      <c r="L92" s="53" t="s">
         <v>740</v>
       </c>
-      <c r="M90" s="14"/>
-    </row>
-    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="219">
+      <c r="M92" s="14"/>
+    </row>
+    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="241">
         <v>6</v>
       </c>
-      <c r="B91" s="232" t="s">
+      <c r="B93" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="79"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="319"/>
-      <c r="H91" s="328"/>
-      <c r="I91" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="J91" s="104">
-        <v>100000000</v>
-      </c>
-      <c r="K91" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="L91" s="104" t="s">
-        <v>366</v>
-      </c>
-      <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="223"/>
-      <c r="B92" s="242"/>
-      <c r="C92" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="80">
-        <v>350000000</v>
-      </c>
-      <c r="E92" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="F92" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="319" t="s">
-        <v>76</v>
-      </c>
-      <c r="H92" s="328"/>
-      <c r="I92" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="J92" s="104">
-        <v>10000000</v>
-      </c>
-      <c r="K92" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="L92" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="223"/>
-      <c r="B93" s="242"/>
       <c r="C93" s="79"/>
       <c r="D93" s="80"/>
       <c r="E93" s="80"/>
       <c r="F93" s="80"/>
-      <c r="G93" s="319"/>
-      <c r="H93" s="328"/>
+      <c r="G93" s="230"/>
+      <c r="H93" s="239"/>
       <c r="I93" s="103" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="J93" s="104">
         <v>100000000</v>
       </c>
       <c r="K93" s="105" t="s">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="L93" s="104" t="s">
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="M93" s="14"/>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="223"/>
-      <c r="B94" s="242"/>
+      <c r="A94" s="245"/>
+      <c r="B94" s="264"/>
       <c r="C94" s="79" t="s">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="D94" s="80">
-        <v>272000000</v>
+        <v>350000000</v>
       </c>
       <c r="E94" s="80" t="s">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="F94" s="80" t="s">
-        <v>404</v>
-      </c>
-      <c r="G94" s="319" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="328"/>
+        <v>83</v>
+      </c>
+      <c r="G94" s="230" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="239"/>
       <c r="I94" s="103" t="s">
         <v>63</v>
       </c>
       <c r="J94" s="104">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="K94" s="105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L94" s="104" t="s">
         <v>64</v>
@@ -9644,88 +9678,88 @@
       <c r="M94" s="14"/>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="223"/>
-      <c r="B95" s="242"/>
-      <c r="C95" s="79" t="s">
+      <c r="A95" s="245"/>
+      <c r="B95" s="264"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="230"/>
+      <c r="H95" s="239"/>
+      <c r="I95" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" s="104">
+        <v>100000000</v>
+      </c>
+      <c r="K95" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="L95" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="M95" s="14"/>
+    </row>
+    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="245"/>
+      <c r="B96" s="264"/>
+      <c r="C96" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D96" s="80">
+        <v>272000000</v>
+      </c>
+      <c r="E96" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="F96" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="G96" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="239"/>
+      <c r="I96" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="J96" s="104">
+        <v>20000000</v>
+      </c>
+      <c r="K96" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="L96" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="245"/>
+      <c r="B97" s="264"/>
+      <c r="C97" s="79" t="s">
         <v>715</v>
       </c>
-      <c r="D95" s="80">
+      <c r="D97" s="80">
         <v>266000000</v>
       </c>
-      <c r="E95" s="80" t="s">
+      <c r="E97" s="80" t="s">
         <v>716</v>
       </c>
-      <c r="F95" s="80" t="s">
+      <c r="F97" s="80" t="s">
         <v>717</v>
       </c>
-      <c r="G95" s="319" t="s">
+      <c r="G97" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="H95" s="328"/>
-      <c r="I95" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="J95" s="104">
-        <v>50000000</v>
-      </c>
-      <c r="K95" s="105" t="s">
-        <v>340</v>
-      </c>
-      <c r="L95" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="223"/>
-      <c r="B96" s="242"/>
-      <c r="C96" s="79" t="s">
-        <v>417</v>
-      </c>
-      <c r="D96" s="80">
-        <v>63000000</v>
-      </c>
-      <c r="E96" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="F96" s="148" t="s">
-        <v>419</v>
-      </c>
-      <c r="G96" s="319" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="328"/>
-      <c r="I96" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="J96" s="104">
-        <v>35000000</v>
-      </c>
-      <c r="K96" s="105" t="s">
-        <v>341</v>
-      </c>
-      <c r="L96" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="223"/>
-      <c r="B97" s="242"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="80"/>
-      <c r="F97" s="80"/>
-      <c r="G97" s="319"/>
-      <c r="H97" s="328"/>
+      <c r="H97" s="239"/>
       <c r="I97" s="103" t="s">
         <v>339</v>
       </c>
       <c r="J97" s="104">
-        <v>28000000</v>
+        <v>50000000</v>
       </c>
       <c r="K97" s="105" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L97" s="104" t="s">
         <v>335</v>
@@ -9733,791 +9767,825 @@
       <c r="M97" s="14"/>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="223"/>
-      <c r="B98" s="242"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="319"/>
-      <c r="H98" s="328"/>
+      <c r="A98" s="245"/>
+      <c r="B98" s="264"/>
+      <c r="C98" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="D98" s="80">
+        <v>63000000</v>
+      </c>
+      <c r="E98" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="G98" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="239"/>
       <c r="I98" s="103" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="J98" s="104">
-        <v>93000000</v>
+        <v>35000000</v>
       </c>
       <c r="K98" s="105" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="L98" s="104" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="M98" s="14"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="223"/>
-      <c r="B99" s="242"/>
+      <c r="A99" s="245"/>
+      <c r="B99" s="264"/>
       <c r="C99" s="79"/>
       <c r="D99" s="80"/>
       <c r="E99" s="80"/>
       <c r="F99" s="80"/>
-      <c r="G99" s="319"/>
-      <c r="H99" s="328"/>
+      <c r="G99" s="230"/>
+      <c r="H99" s="239"/>
       <c r="I99" s="103" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="J99" s="104">
-        <v>20000000</v>
+        <v>28000000</v>
       </c>
       <c r="K99" s="105" t="s">
-        <v>720</v>
+        <v>347</v>
       </c>
       <c r="L99" s="104" t="s">
-        <v>721</v>
+        <v>335</v>
       </c>
       <c r="M99" s="14"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="223"/>
-      <c r="B100" s="242"/>
+      <c r="A100" s="245"/>
+      <c r="B100" s="264"/>
       <c r="C100" s="79"/>
       <c r="D100" s="80"/>
       <c r="E100" s="80"/>
       <c r="F100" s="80"/>
-      <c r="G100" s="319"/>
-      <c r="H100" s="328"/>
+      <c r="G100" s="230"/>
+      <c r="H100" s="239"/>
       <c r="I100" s="103" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J100" s="104">
-        <v>24000000</v>
+        <v>93000000</v>
       </c>
       <c r="K100" s="105" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L100" s="104" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="223"/>
-      <c r="B101" s="242"/>
+      <c r="A101" s="245"/>
+      <c r="B101" s="264"/>
       <c r="C101" s="79"/>
       <c r="D101" s="80"/>
       <c r="E101" s="80"/>
       <c r="F101" s="80"/>
-      <c r="G101" s="319"/>
-      <c r="H101" s="328"/>
+      <c r="G101" s="230"/>
+      <c r="H101" s="239"/>
       <c r="I101" s="103" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="J101" s="104">
-        <v>13500000</v>
+        <v>20000000</v>
       </c>
       <c r="K101" s="105" t="s">
-        <v>133</v>
+        <v>720</v>
       </c>
       <c r="L101" s="104" t="s">
-        <v>131</v>
+        <v>721</v>
       </c>
       <c r="M101" s="14"/>
     </row>
     <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="223"/>
-      <c r="B102" s="242"/>
+      <c r="A102" s="245"/>
+      <c r="B102" s="264"/>
       <c r="C102" s="79"/>
       <c r="D102" s="80"/>
       <c r="E102" s="80"/>
       <c r="F102" s="80"/>
-      <c r="G102" s="319"/>
-      <c r="H102" s="328"/>
+      <c r="G102" s="230"/>
+      <c r="H102" s="239"/>
       <c r="I102" s="103" t="s">
-        <v>696</v>
+        <v>232</v>
       </c>
       <c r="J102" s="104">
-        <v>40000000</v>
+        <v>24000000</v>
       </c>
       <c r="K102" s="105" t="s">
-        <v>697</v>
+        <v>233</v>
       </c>
       <c r="L102" s="104" t="s">
-        <v>698</v>
+        <v>228</v>
       </c>
       <c r="M102" s="14"/>
     </row>
     <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="223"/>
-      <c r="B103" s="242"/>
+      <c r="A103" s="245"/>
+      <c r="B103" s="264"/>
       <c r="C103" s="79"/>
       <c r="D103" s="80"/>
       <c r="E103" s="80"/>
       <c r="F103" s="80"/>
-      <c r="G103" s="319"/>
-      <c r="H103" s="328"/>
+      <c r="G103" s="230"/>
+      <c r="H103" s="239"/>
       <c r="I103" s="103" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J103" s="104">
-        <v>50000000</v>
+        <v>13500000</v>
       </c>
       <c r="K103" s="105" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L103" s="104" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M103" s="14"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="223"/>
-      <c r="B104" s="242"/>
+      <c r="A104" s="245"/>
+      <c r="B104" s="264"/>
       <c r="C104" s="79"/>
       <c r="D104" s="80"/>
       <c r="E104" s="80"/>
       <c r="F104" s="80"/>
-      <c r="G104" s="319"/>
-      <c r="H104" s="328"/>
+      <c r="G104" s="230"/>
+      <c r="H104" s="239"/>
       <c r="I104" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="J104" s="80">
-        <v>66500000</v>
-      </c>
-      <c r="K104" s="105">
-        <v>780171</v>
-      </c>
-      <c r="L104" s="80" t="s">
-        <v>427</v>
+        <v>696</v>
+      </c>
+      <c r="J104" s="104">
+        <v>40000000</v>
+      </c>
+      <c r="K104" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="L104" s="104" t="s">
+        <v>698</v>
       </c>
       <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="223"/>
-      <c r="B105" s="242"/>
+      <c r="A105" s="245"/>
+      <c r="B105" s="264"/>
       <c r="C105" s="79"/>
       <c r="D105" s="80"/>
       <c r="E105" s="80"/>
       <c r="F105" s="80"/>
-      <c r="G105" s="319"/>
-      <c r="H105" s="328"/>
+      <c r="G105" s="230"/>
+      <c r="H105" s="239"/>
       <c r="I105" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="J105" s="80">
-        <v>30000000</v>
+        <v>126</v>
+      </c>
+      <c r="J105" s="104">
+        <v>50000000</v>
       </c>
       <c r="K105" s="105" t="s">
-        <v>588</v>
-      </c>
-      <c r="L105" s="148" t="s">
-        <v>589</v>
+        <v>127</v>
+      </c>
+      <c r="L105" s="104" t="s">
+        <v>128</v>
       </c>
       <c r="M105" s="14"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="223"/>
-      <c r="B106" s="242"/>
+      <c r="A106" s="245"/>
+      <c r="B106" s="264"/>
       <c r="C106" s="79"/>
       <c r="D106" s="80"/>
       <c r="E106" s="80"/>
       <c r="F106" s="80"/>
-      <c r="G106" s="319"/>
-      <c r="H106" s="328"/>
+      <c r="G106" s="230"/>
+      <c r="H106" s="239"/>
       <c r="I106" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="J106" s="104">
-        <v>55000000</v>
-      </c>
-      <c r="K106" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="L106" s="146" t="s">
-        <v>396</v>
+        <v>428</v>
+      </c>
+      <c r="J106" s="80">
+        <v>66500000</v>
+      </c>
+      <c r="K106" s="105">
+        <v>780171</v>
+      </c>
+      <c r="L106" s="80" t="s">
+        <v>427</v>
       </c>
       <c r="M106" s="14"/>
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="220"/>
-      <c r="B107" s="233"/>
+      <c r="A107" s="245"/>
+      <c r="B107" s="264"/>
       <c r="C107" s="79"/>
       <c r="D107" s="80"/>
       <c r="E107" s="80"/>
       <c r="F107" s="80"/>
-      <c r="G107" s="319"/>
-      <c r="H107" s="328"/>
+      <c r="G107" s="230"/>
+      <c r="H107" s="239"/>
       <c r="I107" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="J107" s="80">
+        <v>30000000</v>
+      </c>
+      <c r="K107" s="105" t="s">
+        <v>588</v>
+      </c>
+      <c r="L107" s="148" t="s">
+        <v>589</v>
+      </c>
+      <c r="M107" s="14"/>
+    </row>
+    <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="245"/>
+      <c r="B108" s="264"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="230"/>
+      <c r="H108" s="239"/>
+      <c r="I108" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="J107" s="104">
+      <c r="J108" s="104">
+        <v>55000000</v>
+      </c>
+      <c r="K108" s="105" t="s">
+        <v>395</v>
+      </c>
+      <c r="L108" s="146" t="s">
+        <v>396</v>
+      </c>
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="242"/>
+      <c r="B109" s="255"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="230"/>
+      <c r="H109" s="239"/>
+      <c r="I109" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="J109" s="104">
         <v>50000000</v>
       </c>
-      <c r="K107" s="105" t="s">
+      <c r="K109" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="L107" s="104" t="s">
+      <c r="L109" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="219">
+      <c r="M109" s="14"/>
+    </row>
+    <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="241">
         <v>7</v>
       </c>
-      <c r="B108" s="221" t="s">
+      <c r="B110" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="89"/>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="320"/>
-      <c r="H108" s="329"/>
-      <c r="I108" s="323" t="s">
-        <v>463</v>
-      </c>
-      <c r="J108" s="90">
-        <v>35000000</v>
-      </c>
-      <c r="K108" s="142" t="s">
-        <v>464</v>
-      </c>
-      <c r="L108" s="89" t="s">
-        <v>465</v>
-      </c>
-      <c r="M108" s="14"/>
-    </row>
-    <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="223"/>
-      <c r="B109" s="243"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="320"/>
-      <c r="H109" s="329"/>
-      <c r="I109" s="323" t="s">
-        <v>463</v>
-      </c>
-      <c r="J109" s="90">
-        <v>45000000</v>
-      </c>
-      <c r="K109" s="142" t="s">
-        <v>791</v>
-      </c>
-      <c r="L109" s="89" t="s">
-        <v>792</v>
-      </c>
-      <c r="M109" s="14"/>
-    </row>
-    <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="223"/>
-      <c r="B110" s="243"/>
       <c r="C110" s="89"/>
       <c r="D110" s="90"/>
       <c r="E110" s="90"/>
       <c r="F110" s="90"/>
-      <c r="G110" s="320"/>
-      <c r="H110" s="329"/>
-      <c r="I110" s="323" t="s">
-        <v>173</v>
+      <c r="G110" s="231"/>
+      <c r="H110" s="240"/>
+      <c r="I110" s="234" t="s">
+        <v>463</v>
       </c>
       <c r="J110" s="90">
-        <v>20000000</v>
-      </c>
-      <c r="K110" s="142">
-        <v>885075</v>
+        <v>35000000</v>
+      </c>
+      <c r="K110" s="142" t="s">
+        <v>464</v>
       </c>
       <c r="L110" s="89" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="M110" s="14"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="223"/>
-      <c r="B111" s="243"/>
+      <c r="A111" s="245"/>
+      <c r="B111" s="265"/>
       <c r="C111" s="89"/>
       <c r="D111" s="90"/>
       <c r="E111" s="90"/>
       <c r="F111" s="90"/>
-      <c r="G111" s="320"/>
-      <c r="H111" s="329"/>
-      <c r="I111" s="323" t="s">
-        <v>173</v>
+      <c r="G111" s="231"/>
+      <c r="H111" s="240"/>
+      <c r="I111" s="234" t="s">
+        <v>463</v>
       </c>
       <c r="J111" s="90">
-        <v>5000000</v>
+        <v>45000000</v>
       </c>
       <c r="K111" s="142" t="s">
-        <v>537</v>
+        <v>791</v>
       </c>
       <c r="L111" s="89" t="s">
-        <v>536</v>
+        <v>792</v>
       </c>
       <c r="M111" s="14"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="223"/>
-      <c r="B112" s="243"/>
+      <c r="A112" s="245"/>
+      <c r="B112" s="265"/>
       <c r="C112" s="89"/>
       <c r="D112" s="90"/>
       <c r="E112" s="90"/>
       <c r="F112" s="90"/>
-      <c r="G112" s="320"/>
-      <c r="H112" s="329"/>
-      <c r="I112" s="323" t="s">
-        <v>173</v>
+      <c r="G112" s="231"/>
+      <c r="H112" s="240"/>
+      <c r="I112" s="234" t="s">
+        <v>843</v>
       </c>
       <c r="J112" s="90">
-        <v>5000000</v>
+        <v>100000000</v>
       </c>
       <c r="K112" s="142" t="s">
-        <v>538</v>
+        <v>844</v>
       </c>
       <c r="L112" s="89" t="s">
-        <v>536</v>
+        <v>842</v>
       </c>
       <c r="M112" s="14"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="223"/>
-      <c r="B113" s="243"/>
+      <c r="A113" s="245"/>
+      <c r="B113" s="265"/>
       <c r="C113" s="89"/>
       <c r="D113" s="90"/>
       <c r="E113" s="90"/>
       <c r="F113" s="90"/>
-      <c r="G113" s="320"/>
-      <c r="H113" s="329"/>
-      <c r="I113" s="323" t="s">
-        <v>445</v>
+      <c r="G113" s="231"/>
+      <c r="H113" s="240"/>
+      <c r="I113" s="234" t="s">
+        <v>173</v>
       </c>
       <c r="J113" s="90">
-        <v>100000000</v>
-      </c>
-      <c r="K113" s="142" t="s">
-        <v>446</v>
+        <v>20000000</v>
+      </c>
+      <c r="K113" s="142">
+        <v>885075</v>
       </c>
       <c r="L113" s="89" t="s">
-        <v>444</v>
+        <v>174</v>
       </c>
       <c r="M113" s="14"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="223"/>
-      <c r="B114" s="243"/>
+      <c r="A114" s="245"/>
+      <c r="B114" s="265"/>
       <c r="C114" s="89"/>
       <c r="D114" s="90"/>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
-      <c r="G114" s="320"/>
-      <c r="H114" s="329"/>
-      <c r="I114" s="323" t="s">
-        <v>445</v>
+      <c r="G114" s="231"/>
+      <c r="H114" s="240"/>
+      <c r="I114" s="234" t="s">
+        <v>173</v>
       </c>
       <c r="J114" s="90">
-        <v>61000000</v>
-      </c>
-      <c r="K114" s="90">
-        <v>252284</v>
+        <v>5000000</v>
+      </c>
+      <c r="K114" s="142" t="s">
+        <v>537</v>
       </c>
       <c r="L114" s="89" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="M114" s="14"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="223"/>
-      <c r="B115" s="243"/>
+      <c r="A115" s="245"/>
+      <c r="B115" s="265"/>
       <c r="C115" s="89"/>
       <c r="D115" s="90"/>
       <c r="E115" s="90"/>
       <c r="F115" s="90"/>
-      <c r="G115" s="320"/>
-      <c r="H115" s="329"/>
-      <c r="I115" s="323" t="s">
-        <v>583</v>
+      <c r="G115" s="231"/>
+      <c r="H115" s="240"/>
+      <c r="I115" s="234" t="s">
+        <v>173</v>
       </c>
       <c r="J115" s="90">
-        <v>100000000</v>
-      </c>
-      <c r="K115" s="142">
-        <v>60317</v>
+        <v>5000000</v>
+      </c>
+      <c r="K115" s="142" t="s">
+        <v>538</v>
       </c>
       <c r="L115" s="89" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="M115" s="14"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="223"/>
-      <c r="B116" s="243"/>
+      <c r="A116" s="245"/>
+      <c r="B116" s="265"/>
       <c r="C116" s="89"/>
       <c r="D116" s="90"/>
       <c r="E116" s="90"/>
       <c r="F116" s="90"/>
-      <c r="G116" s="320"/>
-      <c r="H116" s="329"/>
-      <c r="I116" s="323" t="s">
-        <v>583</v>
+      <c r="G116" s="231"/>
+      <c r="H116" s="240"/>
+      <c r="I116" s="234" t="s">
+        <v>445</v>
       </c>
       <c r="J116" s="90">
-        <v>30000000</v>
+        <v>100000000</v>
       </c>
       <c r="K116" s="142" t="s">
-        <v>587</v>
+        <v>446</v>
       </c>
       <c r="L116" s="89" t="s">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="M116" s="14"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="223"/>
-      <c r="B117" s="243"/>
+      <c r="A117" s="245"/>
+      <c r="B117" s="265"/>
       <c r="C117" s="89"/>
       <c r="D117" s="90"/>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
-      <c r="G117" s="320"/>
-      <c r="H117" s="329"/>
-      <c r="I117" s="323" t="s">
-        <v>542</v>
+      <c r="G117" s="231"/>
+      <c r="H117" s="240"/>
+      <c r="I117" s="234" t="s">
+        <v>445</v>
       </c>
       <c r="J117" s="90">
-        <v>20000000</v>
+        <v>61000000</v>
       </c>
       <c r="K117" s="90">
-        <v>811004</v>
+        <v>252284</v>
       </c>
       <c r="L117" s="89" t="s">
-        <v>536</v>
+        <v>444</v>
       </c>
       <c r="M117" s="14"/>
     </row>
     <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="223"/>
-      <c r="B118" s="243"/>
+      <c r="A118" s="245"/>
+      <c r="B118" s="265"/>
       <c r="C118" s="89"/>
       <c r="D118" s="90"/>
       <c r="E118" s="90"/>
       <c r="F118" s="90"/>
-      <c r="G118" s="320"/>
-      <c r="H118" s="329"/>
-      <c r="I118" s="323" t="s">
-        <v>94</v>
+      <c r="G118" s="231"/>
+      <c r="H118" s="240"/>
+      <c r="I118" s="234" t="s">
+        <v>583</v>
       </c>
       <c r="J118" s="90">
-        <v>5000000</v>
-      </c>
-      <c r="K118" s="90">
-        <v>785545</v>
+        <v>100000000</v>
+      </c>
+      <c r="K118" s="142">
+        <v>60317</v>
       </c>
       <c r="L118" s="89" t="s">
-        <v>95</v>
+        <v>584</v>
       </c>
       <c r="M118" s="14"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="220"/>
-      <c r="B119" s="222"/>
+      <c r="A119" s="245"/>
+      <c r="B119" s="265"/>
       <c r="C119" s="89"/>
       <c r="D119" s="90"/>
       <c r="E119" s="90"/>
       <c r="F119" s="90"/>
-      <c r="G119" s="320"/>
-      <c r="H119" s="329"/>
-      <c r="I119" s="323" t="s">
+      <c r="G119" s="231"/>
+      <c r="H119" s="240"/>
+      <c r="I119" s="234" t="s">
+        <v>583</v>
+      </c>
+      <c r="J119" s="90">
+        <v>30000000</v>
+      </c>
+      <c r="K119" s="142" t="s">
+        <v>587</v>
+      </c>
+      <c r="L119" s="89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M119" s="14"/>
+    </row>
+    <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="245"/>
+      <c r="B120" s="265"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="90"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="231"/>
+      <c r="H120" s="240"/>
+      <c r="I120" s="234" t="s">
+        <v>542</v>
+      </c>
+      <c r="J120" s="90">
+        <v>20000000</v>
+      </c>
+      <c r="K120" s="90">
+        <v>811004</v>
+      </c>
+      <c r="L120" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="M120" s="14"/>
+    </row>
+    <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="245"/>
+      <c r="B121" s="265"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="231"/>
+      <c r="H121" s="240"/>
+      <c r="I121" s="234" t="s">
         <v>94</v>
       </c>
-      <c r="J119" s="90">
+      <c r="J121" s="90">
+        <v>5000000</v>
+      </c>
+      <c r="K121" s="90">
+        <v>785545</v>
+      </c>
+      <c r="L121" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="M121" s="14"/>
+    </row>
+    <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="242"/>
+      <c r="B122" s="244"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="90"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="231"/>
+      <c r="H122" s="240"/>
+      <c r="I122" s="234" t="s">
+        <v>94</v>
+      </c>
+      <c r="J122" s="90">
         <v>50000000</v>
       </c>
-      <c r="K119" s="90">
+      <c r="K122" s="90">
         <v>444218</v>
       </c>
-      <c r="L119" s="89" t="s">
+      <c r="L122" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="M119" s="14"/>
-    </row>
-    <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="219">
+      <c r="M122" s="14"/>
+    </row>
+    <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="241">
         <v>8</v>
       </c>
-      <c r="B120" s="225" t="s">
+      <c r="B123" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="67" t="s">
+      <c r="C123" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="D120" s="68">
+      <c r="D123" s="68">
         <v>150000000</v>
       </c>
-      <c r="E120" s="68" t="s">
+      <c r="E123" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="F120" s="68" t="s">
+      <c r="F123" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="G120" s="321" t="s">
+      <c r="G123" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="H120" s="160"/>
-      <c r="I120" s="70" t="s">
+      <c r="H123" s="160"/>
+      <c r="I123" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="J120" s="68">
+      <c r="J123" s="68">
         <v>100000000</v>
       </c>
-      <c r="K120" s="107" t="s">
+      <c r="K123" s="107" t="s">
         <v>492</v>
       </c>
-      <c r="L120" s="152" t="s">
+      <c r="L123" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="M120" s="14"/>
-    </row>
-    <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="223"/>
-      <c r="B121" s="226"/>
-      <c r="C121" s="67" t="s">
+      <c r="M123" s="14"/>
+    </row>
+    <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="245"/>
+      <c r="B124" s="248"/>
+      <c r="C124" s="67" t="s">
         <v>574</v>
       </c>
-      <c r="D121" s="68">
+      <c r="D124" s="68">
         <v>200000000</v>
       </c>
-      <c r="E121" s="68" t="s">
+      <c r="E124" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="F121" s="68" t="s">
+      <c r="F124" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="G121" s="321" t="s">
+      <c r="G124" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="160"/>
-      <c r="I121" s="70" t="s">
+      <c r="H124" s="160"/>
+      <c r="I124" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="J121" s="68">
+      <c r="J124" s="68">
         <v>100000000</v>
       </c>
-      <c r="K121" s="107" t="s">
+      <c r="K124" s="107" t="s">
         <v>493</v>
       </c>
-      <c r="L121" s="152" t="s">
+      <c r="L124" s="152" t="s">
         <v>494</v>
       </c>
-      <c r="M121" s="14"/>
-    </row>
-    <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="223"/>
-      <c r="B122" s="226"/>
-      <c r="C122" s="67" t="s">
+      <c r="M124" s="14"/>
+    </row>
+    <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="245"/>
+      <c r="B125" s="248"/>
+      <c r="C125" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D125" s="68">
         <v>100000000</v>
       </c>
-      <c r="E122" s="68" t="s">
+      <c r="E125" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="F122" s="68" t="s">
+      <c r="F125" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="G122" s="321" t="s">
+      <c r="G125" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="H122" s="160"/>
-      <c r="I122" s="70" t="s">
+      <c r="H125" s="160"/>
+      <c r="I125" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J122" s="68">
+      <c r="J125" s="68">
         <v>50000000</v>
       </c>
-      <c r="K122" s="107">
+      <c r="K125" s="107">
         <v>732911</v>
       </c>
-      <c r="L122" s="71" t="s">
+      <c r="L125" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="M122" s="14"/>
-    </row>
-    <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="223"/>
-      <c r="B123" s="226"/>
-      <c r="C123" s="67" t="s">
+      <c r="M125" s="14"/>
+    </row>
+    <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="245"/>
+      <c r="B126" s="248"/>
+      <c r="C126" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D126" s="68">
         <v>617000000</v>
       </c>
-      <c r="E123" s="68" t="s">
+      <c r="E126" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="F123" s="68" t="s">
+      <c r="F126" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="G123" s="321" t="s">
+      <c r="G126" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H123" s="160"/>
-      <c r="I123" s="324" t="s">
+      <c r="H126" s="160"/>
+      <c r="I126" s="235" t="s">
         <v>616</v>
       </c>
-      <c r="J123" s="160">
+      <c r="J126" s="160">
         <v>50000000</v>
       </c>
-      <c r="K123" s="161" t="s">
+      <c r="K126" s="161" t="s">
         <v>617</v>
       </c>
-      <c r="L123" s="159" t="s">
+      <c r="L126" s="159" t="s">
         <v>615</v>
       </c>
-      <c r="M123" s="131"/>
-    </row>
-    <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="223"/>
-      <c r="B124" s="226"/>
-      <c r="C124" s="67" t="s">
+      <c r="M126" s="131"/>
+    </row>
+    <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="245"/>
+      <c r="B127" s="248"/>
+      <c r="C127" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="D124" s="68">
+      <c r="D127" s="68">
         <v>124000000</v>
       </c>
-      <c r="E124" s="68" t="s">
+      <c r="E127" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="F124" s="68" t="s">
+      <c r="F127" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="G124" s="321" t="s">
+      <c r="G127" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H124" s="160"/>
-      <c r="I124" s="324" t="s">
+      <c r="H127" s="160"/>
+      <c r="I127" s="235" t="s">
         <v>722</v>
       </c>
-      <c r="J124" s="160">
+      <c r="J127" s="160">
         <v>10000000</v>
       </c>
-      <c r="K124" s="161" t="s">
+      <c r="K127" s="161" t="s">
         <v>723</v>
       </c>
-      <c r="L124" s="159" t="s">
+      <c r="L127" s="159" t="s">
         <v>721</v>
       </c>
-      <c r="M124" s="131"/>
-    </row>
-    <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="223"/>
-      <c r="B125" s="226"/>
-      <c r="C125" s="67" t="s">
+      <c r="M127" s="131"/>
+    </row>
+    <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="245"/>
+      <c r="B128" s="248"/>
+      <c r="C128" s="67" t="s">
         <v>630</v>
       </c>
-      <c r="D125" s="68">
+      <c r="D128" s="68">
         <v>200000000</v>
       </c>
-      <c r="E125" s="68" t="s">
+      <c r="E128" s="68" t="s">
         <v>632</v>
       </c>
-      <c r="F125" s="68" t="s">
+      <c r="F128" s="68" t="s">
         <v>631</v>
       </c>
-      <c r="G125" s="321" t="s">
+      <c r="G128" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="H125" s="160"/>
-      <c r="I125" s="324" t="s">
+      <c r="H128" s="160"/>
+      <c r="I128" s="235" t="s">
         <v>722</v>
       </c>
-      <c r="J125" s="160">
+      <c r="J128" s="160">
         <v>50000000</v>
       </c>
-      <c r="K125" s="161" t="s">
+      <c r="K128" s="161" t="s">
         <v>732</v>
       </c>
-      <c r="L125" s="159" t="s">
+      <c r="L128" s="159" t="s">
         <v>721</v>
       </c>
-      <c r="M125" s="131"/>
-    </row>
-    <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="223"/>
-      <c r="B126" s="226"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="321"/>
-      <c r="H126" s="160"/>
-      <c r="I126" s="324"/>
-      <c r="J126" s="160"/>
-      <c r="K126" s="161"/>
-      <c r="L126" s="159"/>
-      <c r="M126" s="131"/>
-    </row>
-    <row r="127" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="224"/>
-      <c r="B127" s="227"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="321"/>
-      <c r="H127" s="160"/>
-      <c r="I127" s="324"/>
-      <c r="J127" s="159"/>
-      <c r="K127" s="159"/>
-      <c r="L127" s="159"/>
-      <c r="M127" s="18"/>
-    </row>
-    <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28"/>
-      <c r="M128" s="29"/>
+      <c r="M128" s="131"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
-      <c r="M129" s="29"/>
-    </row>
-    <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="29"/>
+      <c r="A129" s="245"/>
+      <c r="B129" s="248"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="232"/>
+      <c r="H129" s="160"/>
+      <c r="I129" s="235"/>
+      <c r="J129" s="160"/>
+      <c r="K129" s="161"/>
+      <c r="L129" s="159"/>
+      <c r="M129" s="131"/>
+    </row>
+    <row r="130" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="246"/>
+      <c r="B130" s="249"/>
+      <c r="C130" s="94"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="232"/>
+      <c r="H130" s="160"/>
+      <c r="I130" s="235"/>
+      <c r="J130" s="159"/>
+      <c r="K130" s="159"/>
+      <c r="L130" s="159"/>
+      <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24"/>
@@ -12439,12 +12507,57 @@
       <c r="L258" s="28"/>
       <c r="M258" s="29"/>
     </row>
+    <row r="259" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="24"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" s="27"/>
+      <c r="G259" s="28"/>
+      <c r="H259" s="28"/>
+      <c r="I259" s="28"/>
+      <c r="J259" s="28"/>
+      <c r="K259" s="28"/>
+      <c r="L259" s="28"/>
+      <c r="M259" s="29"/>
+    </row>
+    <row r="260" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="24"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
+      <c r="F260" s="27"/>
+      <c r="G260" s="28"/>
+      <c r="H260" s="28"/>
+      <c r="I260" s="28"/>
+      <c r="J260" s="28"/>
+      <c r="K260" s="28"/>
+      <c r="L260" s="28"/>
+      <c r="M260" s="29"/>
+    </row>
+    <row r="261" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="24"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+      <c r="F261" s="27"/>
+      <c r="G261" s="28"/>
+      <c r="H261" s="28"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="28"/>
+      <c r="L261" s="28"/>
+      <c r="M261" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="A38:A49"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B17"/>
@@ -12455,18 +12568,18 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B18:B29"/>
     <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B78:B89"/>
-    <mergeCell ref="A78:A89"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="B58:B77"/>
-    <mergeCell ref="A58:A77"/>
-    <mergeCell ref="A91:A107"/>
-    <mergeCell ref="B91:B107"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="B108:B119"/>
-    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="B80:B91"/>
+    <mergeCell ref="A80:A91"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="A60:A79"/>
+    <mergeCell ref="A93:A109"/>
+    <mergeCell ref="B93:B109"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B110:B122"/>
+    <mergeCell ref="A110:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12475,11 +12588,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12560,10 +12673,10 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="262">
+      <c r="A3" s="284">
         <v>1</v>
       </c>
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="283" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="109" t="s">
@@ -12589,8 +12702,8 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="262"/>
-      <c r="B4" s="261"/>
+      <c r="A4" s="284"/>
+      <c r="B4" s="283"/>
       <c r="C4" s="109" t="s">
         <v>519</v>
       </c>
@@ -12614,8 +12727,8 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="262"/>
-      <c r="B5" s="261"/>
+      <c r="A5" s="284"/>
+      <c r="B5" s="283"/>
       <c r="C5" s="109" t="s">
         <v>502</v>
       </c>
@@ -12639,8 +12752,8 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="262"/>
-      <c r="B6" s="261"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="283"/>
       <c r="C6" s="109" t="s">
         <v>178</v>
       </c>
@@ -12674,8 +12787,8 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="262"/>
-      <c r="B7" s="261"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="283"/>
       <c r="C7" s="109" t="s">
         <v>178</v>
       </c>
@@ -12709,8 +12822,8 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="262"/>
-      <c r="B8" s="261"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="283"/>
       <c r="C8" s="109" t="s">
         <v>519</v>
       </c>
@@ -12742,8 +12855,8 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="262"/>
-      <c r="B9" s="261"/>
+      <c r="A9" s="284"/>
+      <c r="B9" s="283"/>
       <c r="C9" s="109" t="s">
         <v>388</v>
       </c>
@@ -12775,8 +12888,8 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="262"/>
-      <c r="B10" s="261"/>
+      <c r="A10" s="284"/>
+      <c r="B10" s="283"/>
       <c r="C10" s="109"/>
       <c r="D10" s="117"/>
       <c r="E10" s="109"/>
@@ -12798,8 +12911,8 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="262"/>
-      <c r="B11" s="261"/>
+      <c r="A11" s="284"/>
+      <c r="B11" s="283"/>
       <c r="C11" s="109"/>
       <c r="D11" s="117"/>
       <c r="E11" s="109"/>
@@ -12821,10 +12934,10 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="277">
+      <c r="A12" s="299">
         <v>2</v>
       </c>
-      <c r="B12" s="275" t="s">
+      <c r="B12" s="297" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="114" t="s">
@@ -12858,8 +12971,8 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="277"/>
-      <c r="B13" s="275"/>
+      <c r="A13" s="299"/>
+      <c r="B13" s="297"/>
       <c r="C13" s="114" t="s">
         <v>187</v>
       </c>
@@ -12891,8 +13004,8 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="277"/>
-      <c r="B14" s="275"/>
+      <c r="A14" s="299"/>
+      <c r="B14" s="297"/>
       <c r="C14" s="114" t="s">
         <v>187</v>
       </c>
@@ -12924,8 +13037,8 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="277"/>
-      <c r="B15" s="275"/>
+      <c r="A15" s="299"/>
+      <c r="B15" s="297"/>
       <c r="C15" s="114"/>
       <c r="D15" s="84"/>
       <c r="E15" s="114"/>
@@ -12947,8 +13060,8 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="277"/>
-      <c r="B16" s="276"/>
+      <c r="A16" s="299"/>
+      <c r="B16" s="298"/>
       <c r="C16" s="114" t="s">
         <v>148</v>
       </c>
@@ -12982,8 +13095,8 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="277"/>
-      <c r="B17" s="276"/>
+      <c r="A17" s="299"/>
+      <c r="B17" s="298"/>
       <c r="C17" s="114" t="s">
         <v>747</v>
       </c>
@@ -13015,8 +13128,8 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="277"/>
-      <c r="B18" s="276"/>
+      <c r="A18" s="299"/>
+      <c r="B18" s="298"/>
       <c r="C18" s="98"/>
       <c r="D18" s="176"/>
       <c r="E18" s="176"/>
@@ -13038,8 +13151,8 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="277"/>
-      <c r="B19" s="276"/>
+      <c r="A19" s="299"/>
+      <c r="B19" s="298"/>
       <c r="C19" s="98"/>
       <c r="D19" s="176"/>
       <c r="E19" s="176"/>
@@ -13061,8 +13174,8 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="277"/>
-      <c r="B20" s="276"/>
+      <c r="A20" s="299"/>
+      <c r="B20" s="298"/>
       <c r="C20" s="98"/>
       <c r="D20" s="176"/>
       <c r="E20" s="176"/>
@@ -13084,8 +13197,8 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="277"/>
-      <c r="B21" s="276"/>
+      <c r="A21" s="299"/>
+      <c r="B21" s="298"/>
       <c r="C21" s="98"/>
       <c r="D21" s="176"/>
       <c r="E21" s="176"/>
@@ -13107,8 +13220,8 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="277"/>
-      <c r="B22" s="276"/>
+      <c r="A22" s="299"/>
+      <c r="B22" s="298"/>
       <c r="C22" s="98"/>
       <c r="D22" s="176"/>
       <c r="E22" s="176"/>
@@ -13130,8 +13243,8 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="277"/>
-      <c r="B23" s="276"/>
+      <c r="A23" s="299"/>
+      <c r="B23" s="298"/>
       <c r="C23" s="98"/>
       <c r="D23" s="176"/>
       <c r="E23" s="176"/>
@@ -13153,8 +13266,8 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="277"/>
-      <c r="B24" s="276"/>
+      <c r="A24" s="299"/>
+      <c r="B24" s="298"/>
       <c r="C24" s="98"/>
       <c r="D24" s="176"/>
       <c r="E24" s="176"/>
@@ -13176,8 +13289,8 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="277"/>
-      <c r="B25" s="276"/>
+      <c r="A25" s="299"/>
+      <c r="B25" s="298"/>
       <c r="C25" s="98"/>
       <c r="D25" s="176"/>
       <c r="E25" s="176"/>
@@ -13199,8 +13312,8 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="277"/>
-      <c r="B26" s="276"/>
+      <c r="A26" s="299"/>
+      <c r="B26" s="298"/>
       <c r="C26" s="98"/>
       <c r="D26" s="176"/>
       <c r="E26" s="176"/>
@@ -13222,8 +13335,8 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="277"/>
-      <c r="B27" s="276"/>
+      <c r="A27" s="299"/>
+      <c r="B27" s="298"/>
       <c r="C27" s="98"/>
       <c r="D27" s="176"/>
       <c r="E27" s="176"/>
@@ -13245,8 +13358,8 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="277"/>
-      <c r="B28" s="276"/>
+      <c r="A28" s="299"/>
+      <c r="B28" s="298"/>
       <c r="C28" s="98"/>
       <c r="D28" s="176"/>
       <c r="E28" s="176"/>
@@ -13268,8 +13381,8 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="277"/>
-      <c r="B29" s="276"/>
+      <c r="A29" s="299"/>
+      <c r="B29" s="298"/>
       <c r="C29" s="98"/>
       <c r="D29" s="176"/>
       <c r="E29" s="176"/>
@@ -13283,8 +13396,8 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="277"/>
-      <c r="B30" s="276"/>
+      <c r="A30" s="299"/>
+      <c r="B30" s="298"/>
       <c r="C30" s="98"/>
       <c r="D30" s="176"/>
       <c r="E30" s="176"/>
@@ -13306,8 +13419,8 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="277"/>
-      <c r="B31" s="276"/>
+      <c r="A31" s="299"/>
+      <c r="B31" s="298"/>
       <c r="C31" s="98"/>
       <c r="D31" s="176"/>
       <c r="E31" s="176"/>
@@ -13329,8 +13442,8 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="277"/>
-      <c r="B32" s="276"/>
+      <c r="A32" s="299"/>
+      <c r="B32" s="298"/>
       <c r="C32" s="98"/>
       <c r="D32" s="176"/>
       <c r="E32" s="176"/>
@@ -13352,8 +13465,8 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="277"/>
-      <c r="B33" s="276"/>
+      <c r="A33" s="299"/>
+      <c r="B33" s="298"/>
       <c r="C33" s="98"/>
       <c r="D33" s="176"/>
       <c r="E33" s="176"/>
@@ -13375,8 +13488,8 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="277"/>
-      <c r="B34" s="276"/>
+      <c r="A34" s="299"/>
+      <c r="B34" s="298"/>
       <c r="C34" s="98"/>
       <c r="D34" s="176"/>
       <c r="E34" s="176"/>
@@ -13398,8 +13511,8 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="277"/>
-      <c r="B35" s="276"/>
+      <c r="A35" s="299"/>
+      <c r="B35" s="298"/>
       <c r="C35" s="98"/>
       <c r="D35" s="176"/>
       <c r="E35" s="176"/>
@@ -13421,8 +13534,8 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="277"/>
-      <c r="B36" s="276"/>
+      <c r="A36" s="299"/>
+      <c r="B36" s="298"/>
       <c r="C36" s="98"/>
       <c r="D36" s="176"/>
       <c r="E36" s="176"/>
@@ -13444,8 +13557,8 @@
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="277"/>
-      <c r="B37" s="276"/>
+      <c r="A37" s="299"/>
+      <c r="B37" s="298"/>
       <c r="C37" s="98"/>
       <c r="D37" s="176"/>
       <c r="E37" s="176"/>
@@ -13467,8 +13580,8 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="277"/>
-      <c r="B38" s="276"/>
+      <c r="A38" s="299"/>
+      <c r="B38" s="298"/>
       <c r="C38" s="98"/>
       <c r="D38" s="176"/>
       <c r="E38" s="176"/>
@@ -13490,8 +13603,8 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="277"/>
-      <c r="B39" s="276"/>
+      <c r="A39" s="299"/>
+      <c r="B39" s="298"/>
       <c r="C39" s="98"/>
       <c r="D39" s="176"/>
       <c r="E39" s="176"/>
@@ -13513,8 +13626,8 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="277"/>
-      <c r="B40" s="276"/>
+      <c r="A40" s="299"/>
+      <c r="B40" s="298"/>
       <c r="C40" s="98"/>
       <c r="D40" s="176"/>
       <c r="E40" s="176"/>
@@ -13536,8 +13649,8 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="277"/>
-      <c r="B41" s="276"/>
+      <c r="A41" s="299"/>
+      <c r="B41" s="298"/>
       <c r="C41" s="98"/>
       <c r="D41" s="176"/>
       <c r="E41" s="176"/>
@@ -13559,8 +13672,8 @@
       <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="277"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="299"/>
+      <c r="B42" s="298"/>
       <c r="C42" s="98"/>
       <c r="D42" s="176"/>
       <c r="E42" s="176"/>
@@ -13582,8 +13695,8 @@
       <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="277"/>
-      <c r="B43" s="276"/>
+      <c r="A43" s="299"/>
+      <c r="B43" s="298"/>
       <c r="C43" s="98"/>
       <c r="D43" s="176"/>
       <c r="E43" s="176"/>
@@ -13605,8 +13718,8 @@
       <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="277"/>
-      <c r="B44" s="276"/>
+      <c r="A44" s="299"/>
+      <c r="B44" s="298"/>
       <c r="C44" s="98"/>
       <c r="D44" s="176"/>
       <c r="E44" s="176"/>
@@ -13628,8 +13741,8 @@
       <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="277"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="299"/>
+      <c r="B45" s="298"/>
       <c r="C45" s="98" t="s">
         <v>644</v>
       </c>
@@ -13653,8 +13766,8 @@
       <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="277"/>
-      <c r="B46" s="276"/>
+      <c r="A46" s="299"/>
+      <c r="B46" s="298"/>
       <c r="C46" s="98"/>
       <c r="D46" s="176"/>
       <c r="E46" s="176"/>
@@ -13676,8 +13789,8 @@
       <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="277"/>
-      <c r="B47" s="276"/>
+      <c r="A47" s="299"/>
+      <c r="B47" s="298"/>
       <c r="C47" s="98"/>
       <c r="D47" s="176"/>
       <c r="E47" s="176"/>
@@ -13699,8 +13812,8 @@
       <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="277"/>
-      <c r="B48" s="276"/>
+      <c r="A48" s="299"/>
+      <c r="B48" s="298"/>
       <c r="C48" s="98"/>
       <c r="D48" s="176"/>
       <c r="E48" s="176"/>
@@ -13722,8 +13835,8 @@
       <c r="M48" s="32"/>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="278"/>
-      <c r="B49" s="276"/>
+      <c r="A49" s="300"/>
+      <c r="B49" s="298"/>
       <c r="C49" s="176"/>
       <c r="D49" s="176"/>
       <c r="E49" s="176"/>
@@ -13745,10 +13858,10 @@
       <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="281">
+      <c r="A50" s="303">
         <v>3</v>
       </c>
-      <c r="B50" s="279" t="s">
+      <c r="B50" s="301" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="35"/>
@@ -13772,8 +13885,8 @@
       <c r="M50" s="32"/>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="277"/>
-      <c r="B51" s="280"/>
+      <c r="A51" s="299"/>
+      <c r="B51" s="302"/>
       <c r="C51" s="35"/>
       <c r="D51" s="36"/>
       <c r="E51" s="35"/>
@@ -13795,8 +13908,8 @@
       <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="277"/>
-      <c r="B52" s="280"/>
+      <c r="A52" s="299"/>
+      <c r="B52" s="302"/>
       <c r="C52" s="35" t="s">
         <v>45</v>
       </c>
@@ -13828,8 +13941,8 @@
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="277"/>
-      <c r="B53" s="280"/>
+      <c r="A53" s="299"/>
+      <c r="B53" s="302"/>
       <c r="C53" s="35" t="s">
         <v>120</v>
       </c>
@@ -13861,8 +13974,8 @@
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="277"/>
-      <c r="B54" s="280"/>
+      <c r="A54" s="299"/>
+      <c r="B54" s="302"/>
       <c r="C54" s="35"/>
       <c r="D54" s="36"/>
       <c r="E54" s="35"/>
@@ -13884,8 +13997,8 @@
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="277"/>
-      <c r="B55" s="280"/>
+      <c r="A55" s="299"/>
+      <c r="B55" s="302"/>
       <c r="C55" s="35" t="s">
         <v>563</v>
       </c>
@@ -13917,8 +14030,8 @@
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="277"/>
-      <c r="B56" s="280"/>
+      <c r="A56" s="299"/>
+      <c r="B56" s="302"/>
       <c r="C56" s="35"/>
       <c r="D56" s="36"/>
       <c r="E56" s="35"/>
@@ -13940,8 +14053,8 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="277"/>
-      <c r="B57" s="280"/>
+      <c r="A57" s="299"/>
+      <c r="B57" s="302"/>
       <c r="C57" s="35"/>
       <c r="D57" s="36"/>
       <c r="E57" s="35"/>
@@ -13963,8 +14076,8 @@
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="277"/>
-      <c r="B58" s="280"/>
+      <c r="A58" s="299"/>
+      <c r="B58" s="302"/>
       <c r="C58" s="35"/>
       <c r="D58" s="36"/>
       <c r="E58" s="35"/>
@@ -13986,8 +14099,8 @@
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="277"/>
-      <c r="B59" s="280"/>
+      <c r="A59" s="299"/>
+      <c r="B59" s="302"/>
       <c r="C59" s="35"/>
       <c r="D59" s="36"/>
       <c r="E59" s="35"/>
@@ -14011,8 +14124,8 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="277"/>
-      <c r="B60" s="280"/>
+      <c r="A60" s="299"/>
+      <c r="B60" s="302"/>
       <c r="C60" s="35"/>
       <c r="D60" s="36"/>
       <c r="E60" s="35"/>
@@ -14034,8 +14147,8 @@
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="277"/>
-      <c r="B61" s="280"/>
+      <c r="A61" s="299"/>
+      <c r="B61" s="302"/>
       <c r="C61" s="35"/>
       <c r="D61" s="36"/>
       <c r="E61" s="35"/>
@@ -14057,8 +14170,8 @@
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="277"/>
-      <c r="B62" s="280"/>
+      <c r="A62" s="299"/>
+      <c r="B62" s="302"/>
       <c r="C62" s="35" t="s">
         <v>162</v>
       </c>
@@ -14090,8 +14203,8 @@
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="277"/>
-      <c r="B63" s="280"/>
+      <c r="A63" s="299"/>
+      <c r="B63" s="302"/>
       <c r="C63" s="35" t="s">
         <v>137</v>
       </c>
@@ -14123,8 +14236,8 @@
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="277"/>
-      <c r="B64" s="280"/>
+      <c r="A64" s="299"/>
+      <c r="B64" s="302"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -14146,8 +14259,8 @@
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="277"/>
-      <c r="B65" s="280"/>
+      <c r="A65" s="299"/>
+      <c r="B65" s="302"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -14169,8 +14282,8 @@
       <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="277"/>
-      <c r="B66" s="280"/>
+      <c r="A66" s="299"/>
+      <c r="B66" s="302"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -14192,8 +14305,8 @@
       <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="277"/>
-      <c r="B67" s="280"/>
+      <c r="A67" s="299"/>
+      <c r="B67" s="302"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -14215,8 +14328,8 @@
       <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="277"/>
-      <c r="B68" s="280"/>
+      <c r="A68" s="299"/>
+      <c r="B68" s="302"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -14238,8 +14351,8 @@
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="277"/>
-      <c r="B69" s="280"/>
+      <c r="A69" s="299"/>
+      <c r="B69" s="302"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -14261,8 +14374,8 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="277"/>
-      <c r="B70" s="280"/>
+      <c r="A70" s="299"/>
+      <c r="B70" s="302"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -14284,8 +14397,8 @@
       <c r="M70" s="12"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="277"/>
-      <c r="B71" s="280"/>
+      <c r="A71" s="299"/>
+      <c r="B71" s="302"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -14307,8 +14420,8 @@
       <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="277"/>
-      <c r="B72" s="280"/>
+      <c r="A72" s="299"/>
+      <c r="B72" s="302"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -14330,8 +14443,8 @@
       <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="277"/>
-      <c r="B73" s="280"/>
+      <c r="A73" s="299"/>
+      <c r="B73" s="302"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -14353,8 +14466,8 @@
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="277"/>
-      <c r="B74" s="280"/>
+      <c r="A74" s="299"/>
+      <c r="B74" s="302"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -14376,8 +14489,8 @@
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="277"/>
-      <c r="B75" s="280"/>
+      <c r="A75" s="299"/>
+      <c r="B75" s="302"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -14399,8 +14512,8 @@
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="277"/>
-      <c r="B76" s="280"/>
+      <c r="A76" s="299"/>
+      <c r="B76" s="302"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -14422,8 +14535,8 @@
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="277"/>
-      <c r="B77" s="280"/>
+      <c r="A77" s="299"/>
+      <c r="B77" s="302"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -14445,8 +14558,8 @@
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="277"/>
-      <c r="B78" s="280"/>
+      <c r="A78" s="299"/>
+      <c r="B78" s="302"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -14468,8 +14581,8 @@
       <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="277"/>
-      <c r="B79" s="280"/>
+      <c r="A79" s="299"/>
+      <c r="B79" s="302"/>
       <c r="C79" s="35"/>
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
@@ -14561,7 +14674,7 @@
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="192"/>
-      <c r="B83" s="282" t="s">
+      <c r="B83" s="304" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="42" t="s">
@@ -14596,7 +14709,7 @@
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="192"/>
-      <c r="B84" s="282"/>
+      <c r="B84" s="304"/>
       <c r="C84" s="42" t="s">
         <v>744</v>
       </c>
@@ -14628,10 +14741,10 @@
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="284">
+      <c r="A85" s="306">
         <v>4</v>
       </c>
-      <c r="B85" s="282"/>
+      <c r="B85" s="304"/>
       <c r="C85" s="42" t="s">
         <v>23</v>
       </c>
@@ -14663,8 +14776,8 @@
       <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="285"/>
-      <c r="B86" s="282"/>
+      <c r="A86" s="307"/>
+      <c r="B86" s="304"/>
       <c r="C86" s="42" t="s">
         <v>74</v>
       </c>
@@ -14696,8 +14809,8 @@
       <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="285"/>
-      <c r="B87" s="282"/>
+      <c r="A87" s="307"/>
+      <c r="B87" s="304"/>
       <c r="C87" s="42" t="s">
         <v>74</v>
       </c>
@@ -14729,8 +14842,8 @@
       <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="285"/>
-      <c r="B88" s="282"/>
+      <c r="A88" s="307"/>
+      <c r="B88" s="304"/>
       <c r="C88" s="42" t="s">
         <v>307</v>
       </c>
@@ -14762,8 +14875,8 @@
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="285"/>
-      <c r="B89" s="282"/>
+      <c r="A89" s="307"/>
+      <c r="B89" s="304"/>
       <c r="C89" s="42" t="s">
         <v>483</v>
       </c>
@@ -14787,8 +14900,8 @@
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="285"/>
-      <c r="B90" s="282"/>
+      <c r="A90" s="307"/>
+      <c r="B90" s="304"/>
       <c r="C90" s="42" t="s">
         <v>40</v>
       </c>
@@ -14820,8 +14933,8 @@
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="285"/>
-      <c r="B91" s="282"/>
+      <c r="A91" s="307"/>
+      <c r="B91" s="304"/>
       <c r="C91" s="42" t="s">
         <v>234</v>
       </c>
@@ -14853,8 +14966,8 @@
       <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="285"/>
-      <c r="B92" s="282"/>
+      <c r="A92" s="307"/>
+      <c r="B92" s="304"/>
       <c r="C92" s="42" t="s">
         <v>234</v>
       </c>
@@ -14886,8 +14999,8 @@
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="285"/>
-      <c r="B93" s="282"/>
+      <c r="A93" s="307"/>
+      <c r="B93" s="304"/>
       <c r="C93" s="42" t="s">
         <v>234</v>
       </c>
@@ -14919,8 +15032,8 @@
       <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="285"/>
-      <c r="B94" s="282"/>
+      <c r="A94" s="307"/>
+      <c r="B94" s="304"/>
       <c r="C94" s="42" t="s">
         <v>234</v>
       </c>
@@ -14952,8 +15065,8 @@
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="285"/>
-      <c r="B95" s="282"/>
+      <c r="A95" s="307"/>
+      <c r="B95" s="304"/>
       <c r="C95" s="42"/>
       <c r="D95" s="43"/>
       <c r="E95" s="42"/>
@@ -14975,8 +15088,8 @@
       <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="285"/>
-      <c r="B96" s="282"/>
+      <c r="A96" s="307"/>
+      <c r="B96" s="304"/>
       <c r="C96" s="42" t="s">
         <v>234</v>
       </c>
@@ -15008,8 +15121,8 @@
       <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="285"/>
-      <c r="B97" s="282"/>
+      <c r="A97" s="307"/>
+      <c r="B97" s="304"/>
       <c r="C97" s="42" t="s">
         <v>234</v>
       </c>
@@ -15041,8 +15154,8 @@
       <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="285"/>
-      <c r="B98" s="282"/>
+      <c r="A98" s="307"/>
+      <c r="B98" s="304"/>
       <c r="C98" s="42"/>
       <c r="D98" s="43"/>
       <c r="E98" s="42"/>
@@ -15064,8 +15177,8 @@
       <c r="M98" s="12"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="285"/>
-      <c r="B99" s="282"/>
+      <c r="A99" s="307"/>
+      <c r="B99" s="304"/>
       <c r="C99" s="42"/>
       <c r="D99" s="43"/>
       <c r="E99" s="42"/>
@@ -15087,8 +15200,8 @@
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="285"/>
-      <c r="B100" s="282"/>
+      <c r="A100" s="307"/>
+      <c r="B100" s="304"/>
       <c r="C100" s="42"/>
       <c r="D100" s="43"/>
       <c r="E100" s="42"/>
@@ -15110,8 +15223,8 @@
       <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="285"/>
-      <c r="B101" s="282"/>
+      <c r="A101" s="307"/>
+      <c r="B101" s="304"/>
       <c r="C101" s="42"/>
       <c r="D101" s="43"/>
       <c r="E101" s="42"/>
@@ -15133,8 +15246,8 @@
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="285"/>
-      <c r="B102" s="282"/>
+      <c r="A102" s="307"/>
+      <c r="B102" s="304"/>
       <c r="C102" s="42"/>
       <c r="D102" s="43"/>
       <c r="E102" s="42"/>
@@ -15156,8 +15269,8 @@
       <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="285"/>
-      <c r="B103" s="282"/>
+      <c r="A103" s="307"/>
+      <c r="B103" s="304"/>
       <c r="C103" s="42"/>
       <c r="D103" s="43"/>
       <c r="E103" s="42"/>
@@ -15179,8 +15292,8 @@
       <c r="M103" s="12"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="285"/>
-      <c r="B104" s="282"/>
+      <c r="A104" s="307"/>
+      <c r="B104" s="304"/>
       <c r="C104" s="42"/>
       <c r="D104" s="43"/>
       <c r="E104" s="42"/>
@@ -15202,8 +15315,8 @@
       <c r="M104" s="12"/>
     </row>
     <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="285"/>
-      <c r="B105" s="282"/>
+      <c r="A105" s="307"/>
+      <c r="B105" s="304"/>
       <c r="C105" s="42"/>
       <c r="D105" s="43"/>
       <c r="E105" s="42"/>
@@ -15225,8 +15338,8 @@
       <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="285"/>
-      <c r="B106" s="282"/>
+      <c r="A106" s="307"/>
+      <c r="B106" s="304"/>
       <c r="C106" s="42"/>
       <c r="D106" s="43"/>
       <c r="E106" s="42"/>
@@ -15248,8 +15361,8 @@
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="285"/>
-      <c r="B107" s="282"/>
+      <c r="A107" s="307"/>
+      <c r="B107" s="304"/>
       <c r="C107" s="42"/>
       <c r="D107" s="43"/>
       <c r="E107" s="42"/>
@@ -15271,8 +15384,8 @@
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="285"/>
-      <c r="B108" s="282"/>
+      <c r="A108" s="307"/>
+      <c r="B108" s="304"/>
       <c r="C108" s="42"/>
       <c r="D108" s="43"/>
       <c r="E108" s="42"/>
@@ -15294,8 +15407,8 @@
       <c r="M108" s="12"/>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="285"/>
-      <c r="B109" s="282"/>
+      <c r="A109" s="307"/>
+      <c r="B109" s="304"/>
       <c r="C109" s="42"/>
       <c r="D109" s="43"/>
       <c r="E109" s="42"/>
@@ -15317,8 +15430,8 @@
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="285"/>
-      <c r="B110" s="282"/>
+      <c r="A110" s="307"/>
+      <c r="B110" s="304"/>
       <c r="C110" s="42"/>
       <c r="D110" s="43"/>
       <c r="E110" s="42"/>
@@ -15340,8 +15453,8 @@
       <c r="M110" s="12"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="285"/>
-      <c r="B111" s="282"/>
+      <c r="A111" s="307"/>
+      <c r="B111" s="304"/>
       <c r="C111" s="42"/>
       <c r="D111" s="42"/>
       <c r="E111" s="42"/>
@@ -15363,8 +15476,8 @@
       <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="285"/>
-      <c r="B112" s="282"/>
+      <c r="A112" s="307"/>
+      <c r="B112" s="304"/>
       <c r="C112" s="42"/>
       <c r="D112" s="42"/>
       <c r="E112" s="42"/>
@@ -15386,8 +15499,8 @@
       <c r="M112" s="12"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="285"/>
-      <c r="B113" s="282"/>
+      <c r="A113" s="307"/>
+      <c r="B113" s="304"/>
       <c r="C113" s="42"/>
       <c r="D113" s="42"/>
       <c r="E113" s="42"/>
@@ -15409,8 +15522,8 @@
       <c r="M113" s="12"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="285"/>
-      <c r="B114" s="282"/>
+      <c r="A114" s="307"/>
+      <c r="B114" s="304"/>
       <c r="C114" s="42"/>
       <c r="D114" s="42"/>
       <c r="E114" s="42"/>
@@ -15432,8 +15545,8 @@
       <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="285"/>
-      <c r="B115" s="282"/>
+      <c r="A115" s="307"/>
+      <c r="B115" s="304"/>
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
       <c r="E115" s="42"/>
@@ -15455,8 +15568,8 @@
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="285"/>
-      <c r="B116" s="282"/>
+      <c r="A116" s="307"/>
+      <c r="B116" s="304"/>
       <c r="C116" s="42"/>
       <c r="D116" s="42"/>
       <c r="E116" s="42"/>
@@ -15478,8 +15591,8 @@
       <c r="M116" s="12"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="285"/>
-      <c r="B117" s="282"/>
+      <c r="A117" s="307"/>
+      <c r="B117" s="304"/>
       <c r="C117" s="42"/>
       <c r="D117" s="42"/>
       <c r="E117" s="42"/>
@@ -15501,8 +15614,8 @@
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="285"/>
-      <c r="B118" s="282"/>
+      <c r="A118" s="307"/>
+      <c r="B118" s="304"/>
       <c r="C118" s="42"/>
       <c r="D118" s="42"/>
       <c r="E118" s="42"/>
@@ -15524,8 +15637,8 @@
       <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="285"/>
-      <c r="B119" s="282"/>
+      <c r="A119" s="307"/>
+      <c r="B119" s="304"/>
       <c r="C119" s="42"/>
       <c r="D119" s="42"/>
       <c r="E119" s="42"/>
@@ -15547,8 +15660,8 @@
       <c r="M119" s="12"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="285"/>
-      <c r="B120" s="282"/>
+      <c r="A120" s="307"/>
+      <c r="B120" s="304"/>
       <c r="C120" s="42"/>
       <c r="D120" s="42"/>
       <c r="E120" s="42"/>
@@ -15570,8 +15683,8 @@
       <c r="M120" s="12"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="285"/>
-      <c r="B121" s="282"/>
+      <c r="A121" s="307"/>
+      <c r="B121" s="304"/>
       <c r="C121" s="42"/>
       <c r="D121" s="42"/>
       <c r="E121" s="42"/>
@@ -15593,8 +15706,8 @@
       <c r="M121" s="12"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="285"/>
-      <c r="B122" s="282"/>
+      <c r="A122" s="307"/>
+      <c r="B122" s="304"/>
       <c r="C122" s="42"/>
       <c r="D122" s="42"/>
       <c r="E122" s="42"/>
@@ -15616,8 +15729,8 @@
       <c r="M122" s="12"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="285"/>
-      <c r="B123" s="282"/>
+      <c r="A123" s="307"/>
+      <c r="B123" s="304"/>
       <c r="C123" s="42"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42"/>
@@ -15639,8 +15752,8 @@
       <c r="M123" s="12"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="285"/>
-      <c r="B124" s="282"/>
+      <c r="A124" s="307"/>
+      <c r="B124" s="304"/>
       <c r="C124" s="42"/>
       <c r="D124" s="42"/>
       <c r="E124" s="42"/>
@@ -15662,8 +15775,8 @@
       <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="285"/>
-      <c r="B125" s="282"/>
+      <c r="A125" s="307"/>
+      <c r="B125" s="304"/>
       <c r="C125" s="42"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
@@ -15685,8 +15798,8 @@
       <c r="M125" s="12"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="285"/>
-      <c r="B126" s="282"/>
+      <c r="A126" s="307"/>
+      <c r="B126" s="304"/>
       <c r="C126" s="42"/>
       <c r="D126" s="42"/>
       <c r="E126" s="42"/>
@@ -15708,8 +15821,8 @@
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="285"/>
-      <c r="B127" s="282"/>
+      <c r="A127" s="307"/>
+      <c r="B127" s="304"/>
       <c r="C127" s="42"/>
       <c r="D127" s="42"/>
       <c r="E127" s="42"/>
@@ -15731,8 +15844,8 @@
       <c r="M127" s="12"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="285"/>
-      <c r="B128" s="282"/>
+      <c r="A128" s="307"/>
+      <c r="B128" s="304"/>
       <c r="C128" s="42"/>
       <c r="D128" s="42"/>
       <c r="E128" s="42"/>
@@ -15754,8 +15867,8 @@
       <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="285"/>
-      <c r="B129" s="282"/>
+      <c r="A129" s="307"/>
+      <c r="B129" s="304"/>
       <c r="C129" s="42"/>
       <c r="D129" s="42"/>
       <c r="E129" s="42"/>
@@ -15777,8 +15890,8 @@
       <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="285"/>
-      <c r="B130" s="282"/>
+      <c r="A130" s="307"/>
+      <c r="B130" s="304"/>
       <c r="C130" s="42"/>
       <c r="D130" s="42"/>
       <c r="E130" s="42"/>
@@ -15800,8 +15913,8 @@
       <c r="M130" s="12"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="285"/>
-      <c r="B131" s="282"/>
+      <c r="A131" s="307"/>
+      <c r="B131" s="304"/>
       <c r="C131" s="42"/>
       <c r="D131" s="42"/>
       <c r="E131" s="42"/>
@@ -15823,8 +15936,8 @@
       <c r="M131" s="12"/>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="285"/>
-      <c r="B132" s="282"/>
+      <c r="A132" s="307"/>
+      <c r="B132" s="304"/>
       <c r="C132" s="42"/>
       <c r="D132" s="42"/>
       <c r="E132" s="42"/>
@@ -15846,8 +15959,8 @@
       <c r="M132" s="12"/>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="285"/>
-      <c r="B133" s="282"/>
+      <c r="A133" s="307"/>
+      <c r="B133" s="304"/>
       <c r="C133" s="42"/>
       <c r="D133" s="42"/>
       <c r="E133" s="42"/>
@@ -15869,8 +15982,8 @@
       <c r="M133" s="12"/>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="285"/>
-      <c r="B134" s="282"/>
+      <c r="A134" s="307"/>
+      <c r="B134" s="304"/>
       <c r="C134" s="42"/>
       <c r="D134" s="42"/>
       <c r="E134" s="42"/>
@@ -15892,8 +16005,8 @@
       <c r="M134" s="12"/>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="286"/>
-      <c r="B135" s="283"/>
+      <c r="A135" s="308"/>
+      <c r="B135" s="305"/>
       <c r="C135" s="42"/>
       <c r="D135" s="42"/>
       <c r="E135" s="42"/>
@@ -15915,10 +16028,10 @@
       <c r="M135" s="12"/>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="263">
+      <c r="A136" s="285">
         <v>5</v>
       </c>
-      <c r="B136" s="271" t="s">
+      <c r="B136" s="293" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="47"/>
@@ -15942,8 +16055,8 @@
       <c r="M136" s="12"/>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="274"/>
-      <c r="B137" s="272"/>
+      <c r="A137" s="296"/>
+      <c r="B137" s="294"/>
       <c r="C137" s="47"/>
       <c r="D137" s="48"/>
       <c r="E137" s="47"/>
@@ -15965,8 +16078,8 @@
       <c r="M137" s="12"/>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="274"/>
-      <c r="B138" s="272"/>
+      <c r="A138" s="296"/>
+      <c r="B138" s="294"/>
       <c r="C138" s="47"/>
       <c r="D138" s="48"/>
       <c r="E138" s="47"/>
@@ -15988,8 +16101,8 @@
       <c r="M138" s="12"/>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="274"/>
-      <c r="B139" s="272"/>
+      <c r="A139" s="296"/>
+      <c r="B139" s="294"/>
       <c r="C139" s="47"/>
       <c r="D139" s="48"/>
       <c r="E139" s="47"/>
@@ -16011,8 +16124,8 @@
       <c r="M139" s="12"/>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="274"/>
-      <c r="B140" s="272"/>
+      <c r="A140" s="296"/>
+      <c r="B140" s="294"/>
       <c r="C140" s="47"/>
       <c r="D140" s="48"/>
       <c r="E140" s="47"/>
@@ -16034,8 +16147,8 @@
       <c r="M140" s="12"/>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="274"/>
-      <c r="B141" s="272"/>
+      <c r="A141" s="296"/>
+      <c r="B141" s="294"/>
       <c r="C141" s="47"/>
       <c r="D141" s="48"/>
       <c r="E141" s="47"/>
@@ -16057,8 +16170,8 @@
       <c r="M141" s="12"/>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="274"/>
-      <c r="B142" s="272"/>
+      <c r="A142" s="296"/>
+      <c r="B142" s="294"/>
       <c r="C142" s="47"/>
       <c r="D142" s="48"/>
       <c r="E142" s="47"/>
@@ -16080,8 +16193,8 @@
       <c r="M142" s="12"/>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="274"/>
-      <c r="B143" s="272"/>
+      <c r="A143" s="296"/>
+      <c r="B143" s="294"/>
       <c r="C143" s="47"/>
       <c r="D143" s="48"/>
       <c r="E143" s="47"/>
@@ -16089,22 +16202,22 @@
       <c r="G143" s="183"/>
       <c r="H143" s="205"/>
       <c r="I143" s="50" t="s">
-        <v>26</v>
+        <v>840</v>
       </c>
       <c r="J143" s="48">
-        <v>100000000</v>
+        <v>20000000</v>
       </c>
       <c r="K143" s="133" t="s">
-        <v>555</v>
+        <v>839</v>
       </c>
       <c r="L143" s="51" t="s">
-        <v>556</v>
+        <v>838</v>
       </c>
       <c r="M143" s="12"/>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="274"/>
-      <c r="B144" s="272"/>
+      <c r="A144" s="296"/>
+      <c r="B144" s="294"/>
       <c r="C144" s="47"/>
       <c r="D144" s="48"/>
       <c r="E144" s="47"/>
@@ -16112,22 +16225,22 @@
       <c r="G144" s="183"/>
       <c r="H144" s="205"/>
       <c r="I144" s="50" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="J144" s="48">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="K144" s="133" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="L144" s="51" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="M144" s="12"/>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="274"/>
-      <c r="B145" s="272"/>
+      <c r="A145" s="296"/>
+      <c r="B145" s="294"/>
       <c r="C145" s="47"/>
       <c r="D145" s="48"/>
       <c r="E145" s="47"/>
@@ -16135,22 +16248,22 @@
       <c r="G145" s="183"/>
       <c r="H145" s="205"/>
       <c r="I145" s="50" t="s">
-        <v>809</v>
+        <v>26</v>
       </c>
       <c r="J145" s="48">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="K145" s="133" t="s">
-        <v>812</v>
+        <v>555</v>
       </c>
       <c r="L145" s="51" t="s">
-        <v>811</v>
+        <v>556</v>
       </c>
       <c r="M145" s="12"/>
     </row>
     <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="274"/>
-      <c r="B146" s="272"/>
+      <c r="A146" s="296"/>
+      <c r="B146" s="294"/>
       <c r="C146" s="47"/>
       <c r="D146" s="48"/>
       <c r="E146" s="47"/>
@@ -16164,7 +16277,7 @@
         <v>50000000</v>
       </c>
       <c r="K146" s="133" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="L146" s="51" t="s">
         <v>811</v>
@@ -16172,8 +16285,8 @@
       <c r="M146" s="12"/>
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="274"/>
-      <c r="B147" s="272"/>
+      <c r="A147" s="296"/>
+      <c r="B147" s="294"/>
       <c r="C147" s="47"/>
       <c r="D147" s="48"/>
       <c r="E147" s="47"/>
@@ -16187,7 +16300,7 @@
         <v>50000000</v>
       </c>
       <c r="K147" s="133" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L147" s="51" t="s">
         <v>811</v>
@@ -16195,8 +16308,8 @@
       <c r="M147" s="12"/>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="274"/>
-      <c r="B148" s="272"/>
+      <c r="A148" s="296"/>
+      <c r="B148" s="294"/>
       <c r="C148" s="47"/>
       <c r="D148" s="48"/>
       <c r="E148" s="47"/>
@@ -16210,7 +16323,7 @@
         <v>50000000</v>
       </c>
       <c r="K148" s="133" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L148" s="51" t="s">
         <v>811</v>
@@ -16218,8 +16331,8 @@
       <c r="M148" s="12"/>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="274"/>
-      <c r="B149" s="272"/>
+      <c r="A149" s="296"/>
+      <c r="B149" s="294"/>
       <c r="C149" s="47"/>
       <c r="D149" s="48"/>
       <c r="E149" s="47"/>
@@ -16227,22 +16340,22 @@
       <c r="G149" s="183"/>
       <c r="H149" s="205"/>
       <c r="I149" s="50" t="s">
-        <v>472</v>
+        <v>809</v>
       </c>
       <c r="J149" s="48">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
       <c r="K149" s="133" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="L149" s="51" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="M149" s="12"/>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="274"/>
-      <c r="B150" s="272"/>
+      <c r="A150" s="296"/>
+      <c r="B150" s="294"/>
       <c r="C150" s="47"/>
       <c r="D150" s="48"/>
       <c r="E150" s="47"/>
@@ -16250,22 +16363,22 @@
       <c r="G150" s="183"/>
       <c r="H150" s="205"/>
       <c r="I150" s="50" t="s">
-        <v>472</v>
+        <v>809</v>
       </c>
       <c r="J150" s="48">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
       <c r="K150" s="133" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="L150" s="51" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="M150" s="12"/>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="274"/>
-      <c r="B151" s="272"/>
+      <c r="A151" s="296"/>
+      <c r="B151" s="294"/>
       <c r="C151" s="47"/>
       <c r="D151" s="48"/>
       <c r="E151" s="47"/>
@@ -16273,55 +16386,39 @@
       <c r="G151" s="183"/>
       <c r="H151" s="205"/>
       <c r="I151" s="50" t="s">
-        <v>816</v>
-      </c>
-      <c r="J151" s="48">
-        <v>20000000</v>
-      </c>
-      <c r="K151" s="133" t="s">
-        <v>817</v>
-      </c>
-      <c r="L151" s="51" t="s">
-        <v>823</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="J151" s="48"/>
+      <c r="K151" s="133"/>
+      <c r="L151" s="51"/>
       <c r="M151" s="12"/>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="274"/>
-      <c r="B152" s="272"/>
-      <c r="C152" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="48">
-        <v>280000000</v>
-      </c>
-      <c r="E152" s="47">
-        <v>939963</v>
-      </c>
-      <c r="F152" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" s="183" t="s">
-        <v>24</v>
-      </c>
+      <c r="A152" s="296"/>
+      <c r="B152" s="294"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="183"/>
       <c r="H152" s="205"/>
       <c r="I152" s="50" t="s">
-        <v>135</v>
+        <v>472</v>
       </c>
       <c r="J152" s="48">
-        <v>100000000</v>
-      </c>
-      <c r="K152" s="133">
-        <v>214214</v>
+        <v>20000000</v>
+      </c>
+      <c r="K152" s="133" t="s">
+        <v>781</v>
       </c>
       <c r="L152" s="51" t="s">
-        <v>136</v>
+        <v>783</v>
       </c>
       <c r="M152" s="12"/>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="274"/>
-      <c r="B153" s="272"/>
+      <c r="A153" s="296"/>
+      <c r="B153" s="294"/>
       <c r="C153" s="47"/>
       <c r="D153" s="48"/>
       <c r="E153" s="47"/>
@@ -16329,396 +16426,430 @@
       <c r="G153" s="183"/>
       <c r="H153" s="205"/>
       <c r="I153" s="50" t="s">
-        <v>135</v>
+        <v>472</v>
       </c>
       <c r="J153" s="48">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="K153" s="133" t="s">
-        <v>663</v>
+        <v>782</v>
       </c>
       <c r="L153" s="51" t="s">
-        <v>661</v>
+        <v>783</v>
       </c>
       <c r="M153" s="12"/>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="264"/>
-      <c r="B154" s="273"/>
-      <c r="C154" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="D154" s="48">
-        <v>150000000</v>
-      </c>
-      <c r="E154" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="G154" s="183" t="s">
-        <v>37</v>
-      </c>
+      <c r="A154" s="296"/>
+      <c r="B154" s="294"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="183"/>
       <c r="H154" s="205"/>
       <c r="I154" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="J154" s="48">
+        <v>20000000</v>
+      </c>
+      <c r="K154" s="133" t="s">
+        <v>817</v>
+      </c>
+      <c r="L154" s="51" t="s">
+        <v>823</v>
+      </c>
+      <c r="M154" s="12"/>
+    </row>
+    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="296"/>
+      <c r="B155" s="294"/>
+      <c r="C155" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="48">
+        <v>280000000</v>
+      </c>
+      <c r="E155" s="47">
+        <v>939963</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G155" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="205"/>
+      <c r="I155" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J155" s="48">
+        <v>100000000</v>
+      </c>
+      <c r="K155" s="133">
+        <v>214214</v>
+      </c>
+      <c r="L155" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="M155" s="12"/>
+    </row>
+    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="296"/>
+      <c r="B156" s="294"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="183"/>
+      <c r="H156" s="205"/>
+      <c r="I156" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J156" s="48">
+        <v>20000000</v>
+      </c>
+      <c r="K156" s="133" t="s">
+        <v>663</v>
+      </c>
+      <c r="L156" s="51" t="s">
+        <v>661</v>
+      </c>
+      <c r="M156" s="12"/>
+    </row>
+    <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="286"/>
+      <c r="B157" s="295"/>
+      <c r="C157" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="D157" s="48">
+        <v>150000000</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="G157" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" s="205"/>
+      <c r="I157" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="J154" s="48">
+      <c r="J157" s="48">
         <v>50000000</v>
       </c>
-      <c r="K154" s="133">
+      <c r="K157" s="133">
         <v>722809</v>
       </c>
-      <c r="L154" s="51" t="s">
+      <c r="L157" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="M154" s="12"/>
-    </row>
-    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="263">
+      <c r="M157" s="12"/>
+    </row>
+    <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="285">
         <v>6</v>
       </c>
-      <c r="B155" s="267" t="s">
+      <c r="B158" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="58"/>
-      <c r="G155" s="184"/>
-      <c r="H155" s="206"/>
-      <c r="I155" s="60" t="s">
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="184"/>
+      <c r="H158" s="206"/>
+      <c r="I158" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="J155" s="58">
+      <c r="J158" s="58">
         <v>110000000</v>
       </c>
-      <c r="K155" s="164">
+      <c r="K158" s="164">
         <v>691335</v>
       </c>
-      <c r="L155" s="61" t="s">
+      <c r="L158" s="61" t="s">
         <v>624</v>
       </c>
-      <c r="M155" s="13"/>
-    </row>
-    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="264"/>
-      <c r="B156" s="268"/>
-      <c r="C156" s="57" t="s">
+      <c r="M158" s="13"/>
+    </row>
+    <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="286"/>
+      <c r="B159" s="290"/>
+      <c r="C159" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D156" s="58">
+      <c r="D159" s="58">
         <v>1400000000</v>
       </c>
-      <c r="E156" s="57" t="s">
+      <c r="E159" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="F156" s="58" t="s">
+      <c r="F159" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="G156" s="184" t="s">
+      <c r="G159" s="184" t="s">
         <v>114</v>
       </c>
-      <c r="H156" s="206"/>
-      <c r="I156" s="60" t="s">
+      <c r="H159" s="206"/>
+      <c r="I159" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="J156" s="58">
+      <c r="J159" s="58">
         <v>100000000</v>
       </c>
-      <c r="K156" s="164" t="s">
+      <c r="K159" s="164" t="s">
         <v>651</v>
       </c>
-      <c r="L156" s="61" t="s">
+      <c r="L159" s="61" t="s">
         <v>652</v>
       </c>
-      <c r="M156" s="12"/>
-    </row>
-    <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="263">
+      <c r="M159" s="12"/>
+    </row>
+    <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="285">
         <v>7</v>
       </c>
-      <c r="B157" s="269" t="s">
+      <c r="B160" s="291" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="C160" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="D157" s="63">
+      <c r="D160" s="63">
         <v>48000000</v>
       </c>
-      <c r="E157" s="62" t="s">
+      <c r="E160" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="F157" s="63" t="s">
+      <c r="F160" s="63" t="s">
         <v>768</v>
       </c>
-      <c r="G157" s="185" t="s">
+      <c r="G160" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="H157" s="207"/>
-      <c r="I157" s="65"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="66"/>
-      <c r="L157" s="66"/>
-      <c r="M157" s="12"/>
-    </row>
-    <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="264"/>
-      <c r="B158" s="270"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="185"/>
-      <c r="H158" s="207"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="66"/>
-      <c r="L158" s="66"/>
-      <c r="M158" s="13"/>
-    </row>
-    <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="263">
+      <c r="H160" s="207"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="66"/>
+      <c r="K160" s="66"/>
+      <c r="L160" s="66"/>
+      <c r="M160" s="12"/>
+    </row>
+    <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="286"/>
+      <c r="B161" s="292"/>
+      <c r="C161" s="62"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="185"/>
+      <c r="H161" s="207"/>
+      <c r="I161" s="65"/>
+      <c r="J161" s="66"/>
+      <c r="K161" s="66"/>
+      <c r="L161" s="66"/>
+      <c r="M161" s="13"/>
+    </row>
+    <row r="162" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="285">
         <v>8</v>
       </c>
-      <c r="B159" s="290" t="s">
+      <c r="B162" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="186"/>
-      <c r="H159" s="208"/>
-      <c r="I159" s="75" t="s">
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="186"/>
+      <c r="H162" s="208"/>
+      <c r="I162" s="75" t="s">
         <v>691</v>
       </c>
-      <c r="J159" s="73">
+      <c r="J162" s="73">
         <v>100000000</v>
       </c>
-      <c r="K159" s="124">
+      <c r="K162" s="124">
         <v>467118</v>
       </c>
-      <c r="L159" s="76" t="s">
+      <c r="L162" s="76" t="s">
         <v>690</v>
       </c>
-      <c r="M159" s="13"/>
-    </row>
-    <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="264"/>
-      <c r="B160" s="291"/>
-      <c r="C160" s="77"/>
-      <c r="D160" s="72"/>
-      <c r="E160" s="78"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="186"/>
-      <c r="H160" s="208"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="76"/>
-      <c r="K160" s="76"/>
-      <c r="L160" s="76"/>
-      <c r="M160" s="14"/>
-    </row>
-    <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="263">
+      <c r="M162" s="13"/>
+    </row>
+    <row r="163" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="286"/>
+      <c r="B163" s="313"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="78"/>
+      <c r="F163" s="73"/>
+      <c r="G163" s="186"/>
+      <c r="H163" s="208"/>
+      <c r="I163" s="75"/>
+      <c r="J163" s="76"/>
+      <c r="K163" s="76"/>
+      <c r="L163" s="76"/>
+      <c r="M163" s="14"/>
+    </row>
+    <row r="164" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="285">
         <v>9</v>
       </c>
-      <c r="B161" s="292" t="s">
+      <c r="B164" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C164" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D164" s="53">
         <v>2000000000</v>
       </c>
-      <c r="E161" s="52">
+      <c r="E164" s="52">
         <v>595481</v>
       </c>
-      <c r="F161" s="53" t="s">
+      <c r="F164" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="G161" s="187" t="s">
+      <c r="G164" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="H161" s="209"/>
-      <c r="I161" s="55"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="14"/>
-    </row>
-    <row r="162" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="264"/>
-      <c r="B162" s="293"/>
-      <c r="C162" s="87"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="88"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="187"/>
-      <c r="H162" s="209"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="14"/>
-    </row>
-    <row r="163" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="263">
+      <c r="H164" s="209"/>
+      <c r="I164" s="55"/>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="14"/>
+    </row>
+    <row r="165" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="286"/>
+      <c r="B165" s="315"/>
+      <c r="C165" s="87"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="88"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="187"/>
+      <c r="H165" s="209"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="285">
         <v>10</v>
       </c>
-      <c r="B163" s="294" t="s">
+      <c r="B166" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="188"/>
-      <c r="H163" s="210"/>
-      <c r="I163" s="82" t="s">
+      <c r="C166" s="79"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="79"/>
+      <c r="F166" s="80"/>
+      <c r="G166" s="188"/>
+      <c r="H166" s="210"/>
+      <c r="I166" s="82" t="s">
         <v>827</v>
       </c>
-      <c r="J163" s="80">
+      <c r="J166" s="80">
         <v>12000000</v>
       </c>
-      <c r="K163" s="157">
+      <c r="K166" s="157">
         <v>924093</v>
       </c>
-      <c r="L163" s="83" t="s">
+      <c r="L166" s="83" t="s">
         <v>824</v>
       </c>
-      <c r="M163" s="14"/>
-    </row>
-    <row r="164" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="264"/>
-      <c r="B164" s="295"/>
-      <c r="C164" s="79"/>
-      <c r="D164" s="79"/>
-      <c r="E164" s="79"/>
-      <c r="F164" s="80"/>
-      <c r="G164" s="188"/>
-      <c r="H164" s="210"/>
-      <c r="I164" s="82"/>
-      <c r="J164" s="80"/>
-      <c r="K164" s="157"/>
-      <c r="L164" s="83"/>
-      <c r="M164" s="14"/>
-    </row>
-    <row r="165" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="263">
+      <c r="M166" s="14"/>
+    </row>
+    <row r="167" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="286"/>
+      <c r="B167" s="317"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="79"/>
+      <c r="F167" s="80"/>
+      <c r="G167" s="188"/>
+      <c r="H167" s="210"/>
+      <c r="I167" s="82"/>
+      <c r="J167" s="80"/>
+      <c r="K167" s="157"/>
+      <c r="L167" s="83"/>
+      <c r="M167" s="14"/>
+    </row>
+    <row r="168" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="285">
         <v>11</v>
       </c>
-      <c r="B165" s="265" t="s">
+      <c r="B168" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="89"/>
-      <c r="D165" s="89"/>
-      <c r="E165" s="89"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="189"/>
-      <c r="H165" s="211"/>
-      <c r="I165" s="92"/>
-      <c r="J165" s="93"/>
-      <c r="K165" s="93"/>
-      <c r="L165" s="93"/>
-      <c r="M165" s="14"/>
-    </row>
-    <row r="166" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="264"/>
-      <c r="B166" s="266"/>
-      <c r="C166" s="89"/>
-      <c r="D166" s="89"/>
-      <c r="E166" s="89"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="189"/>
-      <c r="H166" s="211"/>
-      <c r="I166" s="92"/>
-      <c r="J166" s="93"/>
-      <c r="K166" s="93"/>
-      <c r="L166" s="93"/>
-      <c r="M166" s="14"/>
-    </row>
-    <row r="167" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="263">
+      <c r="C168" s="89"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="189"/>
+      <c r="H168" s="211"/>
+      <c r="I168" s="92"/>
+      <c r="J168" s="93"/>
+      <c r="K168" s="93"/>
+      <c r="L168" s="93"/>
+      <c r="M168" s="14"/>
+    </row>
+    <row r="169" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="286"/>
+      <c r="B169" s="288"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="89"/>
+      <c r="E169" s="89"/>
+      <c r="F169" s="90"/>
+      <c r="G169" s="189"/>
+      <c r="H169" s="211"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="93"/>
+      <c r="K169" s="93"/>
+      <c r="L169" s="93"/>
+      <c r="M169" s="14"/>
+    </row>
+    <row r="170" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="285">
         <v>12</v>
       </c>
-      <c r="B167" s="288" t="s">
+      <c r="B170" s="310" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="67"/>
-      <c r="D167" s="67"/>
-      <c r="E167" s="67"/>
-      <c r="F167" s="68"/>
-      <c r="G167" s="159"/>
-      <c r="H167" s="212"/>
-      <c r="I167" s="70"/>
-      <c r="J167" s="71"/>
-      <c r="K167" s="71"/>
-      <c r="L167" s="71"/>
-      <c r="M167" s="14"/>
-    </row>
-    <row r="168" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="287"/>
-      <c r="B168" s="289"/>
-      <c r="C168" s="94"/>
-      <c r="D168" s="94"/>
-      <c r="E168" s="94"/>
-      <c r="F168" s="95"/>
-      <c r="G168" s="213"/>
-      <c r="H168" s="214"/>
-      <c r="I168" s="96"/>
-      <c r="J168" s="97"/>
-      <c r="K168" s="97"/>
-      <c r="L168" s="97"/>
-      <c r="M168" s="18"/>
-    </row>
-    <row r="169" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="29"/>
-    </row>
-    <row r="170" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A170" s="24"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
-      <c r="L170" s="28"/>
-      <c r="M170" s="29"/>
-    </row>
-    <row r="171" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="29"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="159"/>
+      <c r="H170" s="212"/>
+      <c r="I170" s="70"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="71"/>
+      <c r="L170" s="71"/>
+      <c r="M170" s="14"/>
+    </row>
+    <row r="171" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="309"/>
+      <c r="B171" s="311"/>
+      <c r="C171" s="94"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="94"/>
+      <c r="F171" s="95"/>
+      <c r="G171" s="213"/>
+      <c r="H171" s="214"/>
+      <c r="I171" s="96"/>
+      <c r="J171" s="97"/>
+      <c r="K171" s="97"/>
+      <c r="L171" s="97"/>
+      <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="24"/>
@@ -18640,26 +18771,71 @@
       <c r="L299" s="28"/>
       <c r="M299" s="29"/>
     </row>
+    <row r="300" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A300" s="24"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="26"/>
+      <c r="D300" s="26"/>
+      <c r="E300" s="26"/>
+      <c r="F300" s="27"/>
+      <c r="G300" s="28"/>
+      <c r="H300" s="28"/>
+      <c r="I300" s="28"/>
+      <c r="J300" s="28"/>
+      <c r="K300" s="28"/>
+      <c r="L300" s="28"/>
+      <c r="M300" s="29"/>
+    </row>
+    <row r="301" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A301" s="24"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="26"/>
+      <c r="F301" s="27"/>
+      <c r="G301" s="28"/>
+      <c r="H301" s="28"/>
+      <c r="I301" s="28"/>
+      <c r="J301" s="28"/>
+      <c r="K301" s="28"/>
+      <c r="L301" s="28"/>
+      <c r="M301" s="29"/>
+    </row>
+    <row r="302" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A302" s="24"/>
+      <c r="B302" s="25"/>
+      <c r="C302" s="26"/>
+      <c r="D302" s="26"/>
+      <c r="E302" s="26"/>
+      <c r="F302" s="27"/>
+      <c r="G302" s="28"/>
+      <c r="H302" s="28"/>
+      <c r="I302" s="28"/>
+      <c r="J302" s="28"/>
+      <c r="K302" s="28"/>
+      <c r="L302" s="28"/>
+      <c r="M302" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B136:B154"/>
-    <mergeCell ref="A136:A154"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B136:B157"/>
+    <mergeCell ref="A136:A157"/>
     <mergeCell ref="B12:B49"/>
     <mergeCell ref="A12:A49"/>
     <mergeCell ref="B50:B79"/>
@@ -18732,10 +18908,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="219">
+      <c r="A2" s="241">
         <v>1</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="318" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -18768,8 +18944,8 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220"/>
-      <c r="B3" s="297"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="319"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -18782,10 +18958,10 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="219">
+      <c r="A4" s="241">
         <v>2</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="318" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -18810,8 +18986,8 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="223"/>
-      <c r="B5" s="299"/>
+      <c r="A5" s="245"/>
+      <c r="B5" s="321"/>
       <c r="C5" s="10" t="s">
         <v>546</v>
       </c>
@@ -18834,8 +19010,8 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="220"/>
-      <c r="B6" s="297"/>
+      <c r="A6" s="242"/>
+      <c r="B6" s="319"/>
       <c r="C6" s="10" t="s">
         <v>529</v>
       </c>
@@ -18858,10 +19034,10 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="219">
+      <c r="A7" s="241">
         <v>3</v>
       </c>
-      <c r="B7" s="296" t="s">
+      <c r="B7" s="318" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10"/>
@@ -18876,8 +19052,8 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="220"/>
-      <c r="B8" s="297"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="319"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -18890,10 +19066,10 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="219">
+      <c r="A9" s="241">
         <v>4</v>
       </c>
-      <c r="B9" s="296" t="s">
+      <c r="B9" s="318" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="10"/>
@@ -18908,8 +19084,8 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="220"/>
-      <c r="B10" s="297"/>
+      <c r="A10" s="242"/>
+      <c r="B10" s="319"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -18922,10 +19098,10 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="219">
+      <c r="A11" s="241">
         <v>5</v>
       </c>
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="318" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10"/>
@@ -18948,8 +19124,8 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="220"/>
-      <c r="B12" s="297"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="319"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -18962,10 +19138,10 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="219">
+      <c r="A13" s="241">
         <v>6</v>
       </c>
-      <c r="B13" s="296" t="s">
+      <c r="B13" s="318" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -18990,8 +19166,8 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="220"/>
-      <c r="B14" s="297"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="319"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -19004,10 +19180,10 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="219">
+      <c r="A15" s="241">
         <v>7</v>
       </c>
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="318" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
@@ -19022,8 +19198,8 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="220"/>
-      <c r="B16" s="297"/>
+      <c r="A16" s="242"/>
+      <c r="B16" s="319"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -19036,10 +19212,10 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="219">
+      <c r="A17" s="241">
         <v>8</v>
       </c>
-      <c r="B17" s="296" t="s">
+      <c r="B17" s="318" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -19072,8 +19248,8 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="224"/>
-      <c r="B18" s="298"/>
+      <c r="A18" s="246"/>
+      <c r="B18" s="320"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
@@ -21002,8 +21178,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="300"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="322"/>
+      <c r="B2" s="269" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="150"/>
@@ -21026,8 +21202,8 @@
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="301"/>
-      <c r="B3" s="248"/>
+      <c r="A3" s="323"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
       <c r="E3" s="150"/>
@@ -21048,8 +21224,8 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="300"/>
-      <c r="B4" s="247" t="s">
+      <c r="A4" s="322"/>
+      <c r="B4" s="269" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -21074,8 +21250,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="301"/>
-      <c r="B5" s="248"/>
+      <c r="A5" s="323"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -21088,8 +21264,8 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="300"/>
-      <c r="B6" s="247" t="s">
+      <c r="A6" s="322"/>
+      <c r="B6" s="269" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -21122,8 +21298,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="302"/>
-      <c r="B7" s="253"/>
+      <c r="A7" s="324"/>
+      <c r="B7" s="275"/>
       <c r="C7" s="10" t="s">
         <v>192</v>
       </c>
@@ -21146,8 +21322,8 @@
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="301"/>
-      <c r="B8" s="248"/>
+      <c r="A8" s="323"/>
+      <c r="B8" s="270"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -21160,10 +21336,10 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="219">
+      <c r="A9" s="241">
         <v>1</v>
       </c>
-      <c r="B9" s="303" t="s">
+      <c r="B9" s="325" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="109" t="s">
@@ -21188,8 +21364,8 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="220"/>
-      <c r="B10" s="304"/>
+      <c r="A10" s="242"/>
+      <c r="B10" s="326"/>
       <c r="C10" s="109"/>
       <c r="D10" s="117"/>
       <c r="E10" s="109"/>
@@ -21202,10 +21378,10 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="219">
+      <c r="A11" s="241">
         <v>2</v>
       </c>
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="327" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="114"/>
@@ -21220,8 +21396,8 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="220"/>
-      <c r="B12" s="306"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="114"/>
       <c r="D12" s="84"/>
       <c r="E12" s="114"/>
@@ -21234,10 +21410,10 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="219">
+      <c r="A13" s="241">
         <v>3</v>
       </c>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="280" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -21270,8 +21446,8 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="220"/>
-      <c r="B14" s="259"/>
+      <c r="A14" s="242"/>
+      <c r="B14" s="281"/>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
       <c r="E14" s="35"/>
@@ -21284,10 +21460,10 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="219">
+      <c r="A15" s="241">
         <v>4</v>
       </c>
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="276" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="42"/>
@@ -21310,8 +21486,8 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="223"/>
-      <c r="B16" s="255"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="42"/>
       <c r="D16" s="43"/>
       <c r="E16" s="42"/>
@@ -21332,8 +21508,8 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="223"/>
-      <c r="B17" s="255"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="277"/>
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="42"/>
@@ -21354,8 +21530,8 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="223"/>
-      <c r="B18" s="255"/>
+      <c r="A18" s="245"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="42"/>
       <c r="D18" s="43"/>
       <c r="E18" s="42"/>
@@ -21376,8 +21552,8 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="223"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
       <c r="E19" s="42"/>
@@ -21398,8 +21574,8 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="223"/>
-      <c r="B20" s="255"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
       <c r="E20" s="42"/>
@@ -21420,8 +21596,8 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="223"/>
-      <c r="B21" s="255"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="42"/>
@@ -21442,8 +21618,8 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="223"/>
-      <c r="B22" s="255"/>
+      <c r="A22" s="245"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="42"/>
@@ -21464,8 +21640,8 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="223"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="42"/>
@@ -21486,8 +21662,8 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="223"/>
-      <c r="B24" s="255"/>
+      <c r="A24" s="245"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="42"/>
@@ -21508,8 +21684,8 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="223"/>
-      <c r="B25" s="255"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="277"/>
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="42"/>
@@ -21530,8 +21706,8 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="223"/>
-      <c r="B26" s="255"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="277"/>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="42"/>
@@ -21552,8 +21728,8 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="223"/>
-      <c r="B27" s="255"/>
+      <c r="A27" s="245"/>
+      <c r="B27" s="277"/>
       <c r="C27" s="42"/>
       <c r="D27" s="43"/>
       <c r="E27" s="42"/>
@@ -21574,8 +21750,8 @@
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="223"/>
-      <c r="B28" s="255"/>
+      <c r="A28" s="245"/>
+      <c r="B28" s="277"/>
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="42"/>
@@ -21596,8 +21772,8 @@
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="223"/>
-      <c r="B29" s="255"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="277"/>
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="42"/>
@@ -21610,8 +21786,8 @@
       <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="220"/>
-      <c r="B30" s="256"/>
+      <c r="A30" s="242"/>
+      <c r="B30" s="278"/>
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -21624,10 +21800,10 @@
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="219">
+      <c r="A31" s="241">
         <v>5</v>
       </c>
-      <c r="B31" s="239" t="s">
+      <c r="B31" s="261" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="47" t="s">
@@ -21660,8 +21836,8 @@
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="220"/>
-      <c r="B32" s="241"/>
+      <c r="A32" s="242"/>
+      <c r="B32" s="263"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
       <c r="E32" s="47"/>
@@ -21674,10 +21850,10 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="219">
+      <c r="A33" s="241">
         <v>6</v>
       </c>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="256" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="57"/>
@@ -21692,8 +21868,8 @@
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="220"/>
-      <c r="B34" s="236"/>
+      <c r="A34" s="242"/>
+      <c r="B34" s="258"/>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
       <c r="E34" s="57"/>
@@ -21706,10 +21882,10 @@
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="219">
+      <c r="A35" s="241">
         <v>7</v>
       </c>
-      <c r="B35" s="237" t="s">
+      <c r="B35" s="259" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="62"/>
@@ -21724,8 +21900,8 @@
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="220"/>
-      <c r="B36" s="238"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="260"/>
       <c r="C36" s="62"/>
       <c r="D36" s="63"/>
       <c r="E36" s="62"/>
@@ -21738,10 +21914,10 @@
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="219">
+      <c r="A37" s="241">
         <v>8</v>
       </c>
-      <c r="B37" s="228" t="s">
+      <c r="B37" s="250" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="72"/>
@@ -21756,8 +21932,8 @@
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
-      <c r="B38" s="229"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="251"/>
       <c r="C38" s="72"/>
       <c r="D38" s="73"/>
       <c r="E38" s="72"/>
@@ -23692,10 +23868,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="219">
+      <c r="A2" s="241">
         <v>1</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="318" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10"/>
@@ -23710,8 +23886,8 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="220"/>
-      <c r="B3" s="297"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="319"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -23724,10 +23900,10 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="219">
+      <c r="A4" s="241">
         <v>2</v>
       </c>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="318" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10"/>
@@ -23742,8 +23918,8 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="220"/>
-      <c r="B5" s="297"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="319"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -23756,10 +23932,10 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="219">
+      <c r="A6" s="241">
         <v>3</v>
       </c>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="318" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10"/>
@@ -23774,8 +23950,8 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="220"/>
-      <c r="B7" s="297"/>
+      <c r="A7" s="242"/>
+      <c r="B7" s="319"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -23788,10 +23964,10 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="219">
+      <c r="A8" s="241">
         <v>4</v>
       </c>
-      <c r="B8" s="296" t="s">
+      <c r="B8" s="318" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="10"/>
@@ -23806,8 +23982,8 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="220"/>
-      <c r="B9" s="297"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="4"/>
@@ -23820,10 +23996,10 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="219">
+      <c r="A10" s="241">
         <v>5</v>
       </c>
-      <c r="B10" s="296" t="s">
+      <c r="B10" s="318" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7"/>
@@ -23838,8 +24014,8 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="220"/>
-      <c r="B11" s="297"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="319"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10"/>
       <c r="E11" s="4"/>
@@ -23852,10 +24028,10 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="219">
+      <c r="A12" s="241">
         <v>6</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="318" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="10"/>
@@ -23870,8 +24046,8 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="220"/>
-      <c r="B13" s="297"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="319"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -23884,10 +24060,10 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="219">
+      <c r="A14" s="241">
         <v>7</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="318" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10"/>
@@ -23902,8 +24078,8 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="220"/>
-      <c r="B15" s="297"/>
+      <c r="A15" s="242"/>
+      <c r="B15" s="319"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -23916,10 +24092,10 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="219">
+      <c r="A16" s="241">
         <v>8</v>
       </c>
-      <c r="B16" s="296" t="s">
+      <c r="B16" s="318" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="10"/>
@@ -23934,8 +24110,8 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="224"/>
-      <c r="B17" s="298"/>
+      <c r="A17" s="246"/>
+      <c r="B17" s="320"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -25863,10 +26039,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="249">
+      <c r="A2" s="271">
         <v>1</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="279" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="10"/>
@@ -25881,8 +26057,8 @@
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="249"/>
-      <c r="B3" s="257"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -25895,10 +26071,10 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="249">
+      <c r="A4" s="271">
         <v>2</v>
       </c>
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="329" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -25931,8 +26107,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="249"/>
-      <c r="B5" s="307"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="329"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
       <c r="E5" s="35"/>
@@ -25953,10 +26129,10 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="249">
+      <c r="A6" s="271">
         <v>3</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="279" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="10"/>
@@ -25971,8 +26147,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="249"/>
-      <c r="B7" s="257"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="279"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -25985,10 +26161,10 @@
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="249">
+      <c r="A8" s="271">
         <v>4</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="279" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10"/>
@@ -26003,8 +26179,8 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="249"/>
-      <c r="B9" s="257"/>
+      <c r="A9" s="271"/>
+      <c r="B9" s="279"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -26017,10 +26193,10 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="219">
+      <c r="A10" s="241">
         <v>5</v>
       </c>
-      <c r="B10" s="296" t="s">
+      <c r="B10" s="318" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="10"/>
@@ -26035,8 +26211,8 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="220"/>
-      <c r="B11" s="297"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="319"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -26049,10 +26225,10 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="219">
+      <c r="A12" s="241">
         <v>6</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="318" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10"/>
@@ -26067,8 +26243,8 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="220"/>
-      <c r="B13" s="297"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="319"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -26081,10 +26257,10 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="219">
+      <c r="A14" s="241">
         <v>7</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="318" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="10"/>
@@ -26099,8 +26275,8 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="220"/>
-      <c r="B15" s="297"/>
+      <c r="A15" s="242"/>
+      <c r="B15" s="319"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -26113,10 +26289,10 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="219">
+      <c r="A16" s="241">
         <v>8</v>
       </c>
-      <c r="B16" s="296" t="s">
+      <c r="B16" s="318" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="10"/>
@@ -26131,8 +26307,8 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="220"/>
-      <c r="B17" s="297"/>
+      <c r="A17" s="242"/>
+      <c r="B17" s="319"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -26145,10 +26321,10 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="219">
+      <c r="A18" s="241">
         <v>9</v>
       </c>
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="318" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="10"/>
@@ -26163,8 +26339,8 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="220"/>
-      <c r="B19" s="297"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="319"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -26177,10 +26353,10 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="219">
+      <c r="A20" s="241">
         <v>10</v>
       </c>
-      <c r="B20" s="296" t="s">
+      <c r="B20" s="318" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="10"/>
@@ -26195,8 +26371,8 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="220"/>
-      <c r="B21" s="297"/>
+      <c r="A21" s="242"/>
+      <c r="B21" s="319"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -26209,10 +26385,10 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="219">
+      <c r="A22" s="241">
         <v>11</v>
       </c>
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="318" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="10"/>
@@ -26227,8 +26403,8 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="220"/>
-      <c r="B23" s="297"/>
+      <c r="A23" s="242"/>
+      <c r="B23" s="319"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
@@ -26241,10 +26417,10 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="219">
+      <c r="A24" s="241">
         <v>12</v>
       </c>
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="318" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="10"/>
@@ -26259,8 +26435,8 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
-      <c r="B25" s="298"/>
+      <c r="A25" s="246"/>
+      <c r="B25" s="320"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -28197,8 +28373,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="249"/>
-      <c r="B2" s="257" t="s">
+      <c r="A2" s="271"/>
+      <c r="B2" s="279" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="10"/>
@@ -28213,8 +28389,8 @@
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="249"/>
-      <c r="B3" s="257"/>
+      <c r="A3" s="271"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -28227,8 +28403,8 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="249"/>
-      <c r="B4" s="257" t="s">
+      <c r="A4" s="271"/>
+      <c r="B4" s="279" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="10"/>
@@ -28243,8 +28419,8 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="249"/>
-      <c r="B5" s="257"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="279"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -28257,8 +28433,8 @@
       <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="249"/>
-      <c r="B6" s="257" t="s">
+      <c r="A6" s="271"/>
+      <c r="B6" s="279" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="10"/>
@@ -28281,8 +28457,8 @@
       <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="249"/>
-      <c r="B7" s="257"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="279"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -28295,8 +28471,8 @@
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="250"/>
-      <c r="B8" s="247" t="s">
+      <c r="A8" s="272"/>
+      <c r="B8" s="269" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10"/>
@@ -28319,8 +28495,8 @@
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="251"/>
-      <c r="B9" s="253"/>
+      <c r="A9" s="273"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -28341,8 +28517,8 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="251"/>
-      <c r="B10" s="253"/>
+      <c r="A10" s="273"/>
+      <c r="B10" s="275"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -28363,8 +28539,8 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="252"/>
-      <c r="B11" s="248"/>
+      <c r="A11" s="274"/>
+      <c r="B11" s="270"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -28385,10 +28561,10 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="219">
+      <c r="A12" s="241">
         <v>1</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="318" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="10"/>
@@ -28411,8 +28587,8 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="220"/>
-      <c r="B13" s="297"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="319"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -28425,10 +28601,10 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="219">
+      <c r="A14" s="241">
         <v>2</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="318" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10"/>
@@ -28443,8 +28619,8 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="220"/>
-      <c r="B15" s="297"/>
+      <c r="A15" s="242"/>
+      <c r="B15" s="319"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -28457,10 +28633,10 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="219">
+      <c r="A16" s="241">
         <v>3</v>
       </c>
-      <c r="B16" s="296" t="s">
+      <c r="B16" s="318" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="10"/>
@@ -28475,8 +28651,8 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="220"/>
-      <c r="B17" s="297"/>
+      <c r="A17" s="242"/>
+      <c r="B17" s="319"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -28489,10 +28665,10 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="219">
+      <c r="A18" s="241">
         <v>4</v>
       </c>
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="318" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="10"/>
@@ -28507,8 +28683,8 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="220"/>
-      <c r="B19" s="297"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="319"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -28521,10 +28697,10 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="219">
+      <c r="A20" s="241">
         <v>5</v>
       </c>
-      <c r="B20" s="296" t="s">
+      <c r="B20" s="318" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="10"/>
@@ -28539,8 +28715,8 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="220"/>
-      <c r="B21" s="297"/>
+      <c r="A21" s="242"/>
+      <c r="B21" s="319"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -28553,10 +28729,10 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="219">
+      <c r="A22" s="241">
         <v>6</v>
       </c>
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="318" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="10"/>
@@ -28571,8 +28747,8 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="220"/>
-      <c r="B23" s="297"/>
+      <c r="A23" s="242"/>
+      <c r="B23" s="319"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
@@ -28585,10 +28761,10 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="219">
+      <c r="A24" s="241">
         <v>7</v>
       </c>
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="318" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="10"/>
@@ -28603,8 +28779,8 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="220"/>
-      <c r="B25" s="297"/>
+      <c r="A25" s="242"/>
+      <c r="B25" s="319"/>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
@@ -28617,10 +28793,10 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="219">
+      <c r="A26" s="241">
         <v>8</v>
       </c>
-      <c r="B26" s="296" t="s">
+      <c r="B26" s="318" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="10"/>
@@ -28635,8 +28811,8 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
-      <c r="B27" s="298"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="320"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
       <c r="E27" s="122"/>
